--- a/valores_cuota_AFP.xlsx
+++ b/valores_cuota_AFP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccl0-my.sharepoint.com/personal/camunoz52_uc_cl/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A823B10-D332-444F-ABF6-5887EFC7EE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{3A823B10-D332-444F-ABF6-5887EFC7EE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62B57621-A5CD-4883-8D78-2724E406944C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E0A72BA3-8FCE-4100-9DCB-A7F9018DFDD7}"/>
   </bookViews>
@@ -915,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B54ED0-B0B6-4D56-AB7D-D7DAD21DC002}">
-  <dimension ref="A1:K367"/>
+  <dimension ref="A1:K518"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="T12" sqref="T12"/>
+    <sheetView tabSelected="1" topLeftCell="A497" zoomScale="70" workbookViewId="0">
+      <selection activeCell="L375" sqref="L375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
@@ -13783,6 +13783,5291 @@
         <v>5540456479629</v>
       </c>
     </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A368" s="1">
+        <v>45658</v>
+      </c>
+      <c r="B368" s="2">
+        <v>75818.990000000005</v>
+      </c>
+      <c r="C368">
+        <v>8830104489252</v>
+      </c>
+      <c r="D368" s="2">
+        <v>65978.960000000006</v>
+      </c>
+      <c r="E368">
+        <v>8429206171642</v>
+      </c>
+      <c r="F368" s="2">
+        <v>69139.69</v>
+      </c>
+      <c r="G368">
+        <v>19201354391793</v>
+      </c>
+      <c r="H368" s="2">
+        <v>51637.59</v>
+      </c>
+      <c r="I368">
+        <v>7932683209160</v>
+      </c>
+      <c r="J368" s="2">
+        <v>56851.75</v>
+      </c>
+      <c r="K368">
+        <v>5540456479629</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A369" s="1">
+        <v>45659</v>
+      </c>
+      <c r="B369" s="2">
+        <v>75982.11</v>
+      </c>
+      <c r="C369">
+        <v>8854912098648</v>
+      </c>
+      <c r="D369" s="2">
+        <v>66077.19</v>
+      </c>
+      <c r="E369">
+        <v>8445488751132</v>
+      </c>
+      <c r="F369" s="2">
+        <v>69176.509999999995</v>
+      </c>
+      <c r="G369">
+        <v>19208047862821</v>
+      </c>
+      <c r="H369" s="2">
+        <v>51622.41</v>
+      </c>
+      <c r="I369">
+        <v>7929495325249</v>
+      </c>
+      <c r="J369" s="2">
+        <v>56810.34</v>
+      </c>
+      <c r="K369">
+        <v>5530546219241</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A370" s="1">
+        <v>45660</v>
+      </c>
+      <c r="B370" s="2">
+        <v>75994.77</v>
+      </c>
+      <c r="C370">
+        <v>8860891392968</v>
+      </c>
+      <c r="D370" s="2">
+        <v>66139.199999999997</v>
+      </c>
+      <c r="E370">
+        <v>8454463633135</v>
+      </c>
+      <c r="F370" s="2">
+        <v>69313.47</v>
+      </c>
+      <c r="G370">
+        <v>19243894598116</v>
+      </c>
+      <c r="H370" s="2">
+        <v>51766.7</v>
+      </c>
+      <c r="I370">
+        <v>7950329486384</v>
+      </c>
+      <c r="J370" s="2">
+        <v>56992</v>
+      </c>
+      <c r="K370">
+        <v>5545074208578</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A371" s="1">
+        <v>45661</v>
+      </c>
+      <c r="B371" s="2">
+        <v>75994.77</v>
+      </c>
+      <c r="C371">
+        <v>8860891392968</v>
+      </c>
+      <c r="D371" s="2">
+        <v>66139.199999999997</v>
+      </c>
+      <c r="E371">
+        <v>8454463633135</v>
+      </c>
+      <c r="F371" s="2">
+        <v>69313.47</v>
+      </c>
+      <c r="G371">
+        <v>19243894598116</v>
+      </c>
+      <c r="H371" s="2">
+        <v>51766.7</v>
+      </c>
+      <c r="I371">
+        <v>7950329486384</v>
+      </c>
+      <c r="J371" s="2">
+        <v>56992</v>
+      </c>
+      <c r="K371">
+        <v>5545074208578</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A372" s="1">
+        <v>45662</v>
+      </c>
+      <c r="B372" s="2">
+        <v>75994.77</v>
+      </c>
+      <c r="C372">
+        <v>8860891392968</v>
+      </c>
+      <c r="D372" s="2">
+        <v>66139.199999999997</v>
+      </c>
+      <c r="E372">
+        <v>8454463633135</v>
+      </c>
+      <c r="F372" s="2">
+        <v>69313.47</v>
+      </c>
+      <c r="G372">
+        <v>19243894598116</v>
+      </c>
+      <c r="H372" s="2">
+        <v>51766.7</v>
+      </c>
+      <c r="I372">
+        <v>7950329486384</v>
+      </c>
+      <c r="J372" s="2">
+        <v>56992</v>
+      </c>
+      <c r="K372">
+        <v>5545074208578</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A373" s="1">
+        <v>45663</v>
+      </c>
+      <c r="B373" s="2">
+        <v>76955.27</v>
+      </c>
+      <c r="C373">
+        <v>8974564963843</v>
+      </c>
+      <c r="D373" s="2">
+        <v>66788.210000000006</v>
+      </c>
+      <c r="E373">
+        <v>8537650394955</v>
+      </c>
+      <c r="F373" s="2">
+        <v>69672.37</v>
+      </c>
+      <c r="G373">
+        <v>19339027117407</v>
+      </c>
+      <c r="H373" s="2">
+        <v>51820.72</v>
+      </c>
+      <c r="I373">
+        <v>7954572487827</v>
+      </c>
+      <c r="J373" s="2">
+        <v>57003.8</v>
+      </c>
+      <c r="K373">
+        <v>5542873972956</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A374" s="1">
+        <v>45664</v>
+      </c>
+      <c r="B374" s="2">
+        <v>77215</v>
+      </c>
+      <c r="C374">
+        <v>9006922103586</v>
+      </c>
+      <c r="D374" s="2">
+        <v>66924.58</v>
+      </c>
+      <c r="E374">
+        <v>8558291802572</v>
+      </c>
+      <c r="F374" s="2">
+        <v>69672.490000000005</v>
+      </c>
+      <c r="G374">
+        <v>19337949642092</v>
+      </c>
+      <c r="H374" s="2">
+        <v>51695.75</v>
+      </c>
+      <c r="I374">
+        <v>7933961606728</v>
+      </c>
+      <c r="J374" s="2">
+        <v>56801.86</v>
+      </c>
+      <c r="K374">
+        <v>5519829441598</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A375" s="1">
+        <v>45665</v>
+      </c>
+      <c r="B375" s="2">
+        <v>76684.69</v>
+      </c>
+      <c r="C375">
+        <v>8946344065278</v>
+      </c>
+      <c r="D375" s="2">
+        <v>66483.73</v>
+      </c>
+      <c r="E375">
+        <v>8502641034742</v>
+      </c>
+      <c r="F375" s="2">
+        <v>69223.41</v>
+      </c>
+      <c r="G375">
+        <v>19208972539420</v>
+      </c>
+      <c r="H375" s="2">
+        <v>51317.87</v>
+      </c>
+      <c r="I375">
+        <v>7871884752455</v>
+      </c>
+      <c r="J375" s="2">
+        <v>56330.31</v>
+      </c>
+      <c r="K375">
+        <v>5469707204069</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A376" s="1">
+        <v>45666</v>
+      </c>
+      <c r="B376" s="2">
+        <v>76662.39</v>
+      </c>
+      <c r="C376">
+        <v>8945478721183</v>
+      </c>
+      <c r="D376" s="2">
+        <v>66359.8</v>
+      </c>
+      <c r="E376">
+        <v>8488235314079</v>
+      </c>
+      <c r="F376" s="2">
+        <v>69033.48</v>
+      </c>
+      <c r="G376">
+        <v>19154731774490</v>
+      </c>
+      <c r="H376" s="2">
+        <v>51077.06</v>
+      </c>
+      <c r="I376">
+        <v>7832988363472</v>
+      </c>
+      <c r="J376" s="2">
+        <v>55967.8</v>
+      </c>
+      <c r="K376">
+        <v>5429151045089</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A377" s="1">
+        <v>45667</v>
+      </c>
+      <c r="B377" s="2">
+        <v>76498.94</v>
+      </c>
+      <c r="C377">
+        <v>8932331154184</v>
+      </c>
+      <c r="D377" s="2">
+        <v>66266.67</v>
+      </c>
+      <c r="E377">
+        <v>8482262116763</v>
+      </c>
+      <c r="F377" s="2">
+        <v>68997.69</v>
+      </c>
+      <c r="G377">
+        <v>19144532957916</v>
+      </c>
+      <c r="H377" s="2">
+        <v>51117.48</v>
+      </c>
+      <c r="I377">
+        <v>7839910369699</v>
+      </c>
+      <c r="J377" s="2">
+        <v>56049.34</v>
+      </c>
+      <c r="K377">
+        <v>5429729761607</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A378" s="1">
+        <v>45668</v>
+      </c>
+      <c r="B378" s="2">
+        <v>76498.94</v>
+      </c>
+      <c r="C378">
+        <v>8932331154184</v>
+      </c>
+      <c r="D378" s="2">
+        <v>66266.67</v>
+      </c>
+      <c r="E378">
+        <v>8482262116763</v>
+      </c>
+      <c r="F378" s="2">
+        <v>68997.69</v>
+      </c>
+      <c r="G378">
+        <v>19144532957916</v>
+      </c>
+      <c r="H378" s="2">
+        <v>51117.48</v>
+      </c>
+      <c r="I378">
+        <v>7839910369699</v>
+      </c>
+      <c r="J378" s="2">
+        <v>56049.34</v>
+      </c>
+      <c r="K378">
+        <v>5429729761607</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A379" s="1">
+        <v>45669</v>
+      </c>
+      <c r="B379" s="2">
+        <v>76498.94</v>
+      </c>
+      <c r="C379">
+        <v>8932331154184</v>
+      </c>
+      <c r="D379" s="2">
+        <v>66266.67</v>
+      </c>
+      <c r="E379">
+        <v>8482262116763</v>
+      </c>
+      <c r="F379" s="2">
+        <v>68997.69</v>
+      </c>
+      <c r="G379">
+        <v>19144532957916</v>
+      </c>
+      <c r="H379" s="2">
+        <v>51117.48</v>
+      </c>
+      <c r="I379">
+        <v>7839910369699</v>
+      </c>
+      <c r="J379" s="2">
+        <v>56049.34</v>
+      </c>
+      <c r="K379">
+        <v>5429729761607</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A380" s="1">
+        <v>45670</v>
+      </c>
+      <c r="B380" s="2">
+        <v>75900.789999999994</v>
+      </c>
+      <c r="C380">
+        <v>8866354103113</v>
+      </c>
+      <c r="D380" s="2">
+        <v>65811.960000000006</v>
+      </c>
+      <c r="E380">
+        <v>8425166115860</v>
+      </c>
+      <c r="F380" s="2">
+        <v>68508.429999999993</v>
+      </c>
+      <c r="G380">
+        <v>19013127908453</v>
+      </c>
+      <c r="H380" s="2">
+        <v>50650.65</v>
+      </c>
+      <c r="I380">
+        <v>7767344183141</v>
+      </c>
+      <c r="J380" s="2">
+        <v>55530.52</v>
+      </c>
+      <c r="K380">
+        <v>5377372698015</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A381" s="1">
+        <v>45671</v>
+      </c>
+      <c r="B381" s="2">
+        <v>75808.740000000005</v>
+      </c>
+      <c r="C381">
+        <v>8861365910737</v>
+      </c>
+      <c r="D381" s="2">
+        <v>65666.06</v>
+      </c>
+      <c r="E381">
+        <v>8410074725770</v>
+      </c>
+      <c r="F381" s="2">
+        <v>68241.69</v>
+      </c>
+      <c r="G381">
+        <v>18939037942308</v>
+      </c>
+      <c r="H381" s="2">
+        <v>50425.23</v>
+      </c>
+      <c r="I381">
+        <v>7723089072878</v>
+      </c>
+      <c r="J381" s="2">
+        <v>55278.74</v>
+      </c>
+      <c r="K381">
+        <v>5348056942827</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A382" s="1">
+        <v>45672</v>
+      </c>
+      <c r="B382" s="2">
+        <v>75759.92</v>
+      </c>
+      <c r="C382">
+        <v>8867275113415</v>
+      </c>
+      <c r="D382" s="2">
+        <v>65577.600000000006</v>
+      </c>
+      <c r="E382">
+        <v>8406493664877</v>
+      </c>
+      <c r="F382" s="2">
+        <v>68037.95</v>
+      </c>
+      <c r="G382">
+        <v>18878807490298</v>
+      </c>
+      <c r="H382" s="2">
+        <v>50251.4</v>
+      </c>
+      <c r="I382">
+        <v>7690211993708</v>
+      </c>
+      <c r="J382" s="2">
+        <v>55044.92</v>
+      </c>
+      <c r="K382">
+        <v>5317842278360</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A383" s="1">
+        <v>45673</v>
+      </c>
+      <c r="B383" s="2">
+        <v>76616.820000000007</v>
+      </c>
+      <c r="C383">
+        <v>8983088876318</v>
+      </c>
+      <c r="D383" s="2">
+        <v>66259.87</v>
+      </c>
+      <c r="E383">
+        <v>8506443023855</v>
+      </c>
+      <c r="F383" s="2">
+        <v>68795</v>
+      </c>
+      <c r="G383">
+        <v>19100784054368</v>
+      </c>
+      <c r="H383" s="2">
+        <v>50840.76</v>
+      </c>
+      <c r="I383">
+        <v>7775578792954</v>
+      </c>
+      <c r="J383" s="2">
+        <v>55640.46</v>
+      </c>
+      <c r="K383">
+        <v>5375264991842</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A384" s="1">
+        <v>45674</v>
+      </c>
+      <c r="B384" s="2">
+        <v>77440.899999999994</v>
+      </c>
+      <c r="C384">
+        <v>9092426823596</v>
+      </c>
+      <c r="D384" s="2">
+        <v>66845.990000000005</v>
+      </c>
+      <c r="E384">
+        <v>8591011422429</v>
+      </c>
+      <c r="F384" s="2">
+        <v>69311.289999999994</v>
+      </c>
+      <c r="G384">
+        <v>19260394773278</v>
+      </c>
+      <c r="H384" s="2">
+        <v>51128.7</v>
+      </c>
+      <c r="I384">
+        <v>7820817153787</v>
+      </c>
+      <c r="J384" s="2">
+        <v>55935.33</v>
+      </c>
+      <c r="K384">
+        <v>5403006992314</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A385" s="1">
+        <v>45675</v>
+      </c>
+      <c r="B385" s="2">
+        <v>77440.899999999994</v>
+      </c>
+      <c r="C385">
+        <v>9092426823596</v>
+      </c>
+      <c r="D385" s="2">
+        <v>66845.990000000005</v>
+      </c>
+      <c r="E385">
+        <v>8591011422429</v>
+      </c>
+      <c r="F385" s="2">
+        <v>69311.289999999994</v>
+      </c>
+      <c r="G385">
+        <v>19260394773278</v>
+      </c>
+      <c r="H385" s="2">
+        <v>51128.7</v>
+      </c>
+      <c r="I385">
+        <v>7820817153787</v>
+      </c>
+      <c r="J385" s="2">
+        <v>55935.33</v>
+      </c>
+      <c r="K385">
+        <v>5403006992314</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A386" s="1">
+        <v>45676</v>
+      </c>
+      <c r="B386" s="2">
+        <v>77440.899999999994</v>
+      </c>
+      <c r="C386">
+        <v>9092426823596</v>
+      </c>
+      <c r="D386" s="2">
+        <v>66845.990000000005</v>
+      </c>
+      <c r="E386">
+        <v>8591011422429</v>
+      </c>
+      <c r="F386" s="2">
+        <v>69311.289999999994</v>
+      </c>
+      <c r="G386">
+        <v>19260394773278</v>
+      </c>
+      <c r="H386" s="2">
+        <v>51128.7</v>
+      </c>
+      <c r="I386">
+        <v>7820817153787</v>
+      </c>
+      <c r="J386" s="2">
+        <v>55935.33</v>
+      </c>
+      <c r="K386">
+        <v>5403006992314</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A387" s="1">
+        <v>45677</v>
+      </c>
+      <c r="B387" s="2">
+        <v>77835.97</v>
+      </c>
+      <c r="C387">
+        <v>9140075232149</v>
+      </c>
+      <c r="D387" s="2">
+        <v>67142.22</v>
+      </c>
+      <c r="E387">
+        <v>8628695475033</v>
+      </c>
+      <c r="F387" s="2">
+        <v>69554.23</v>
+      </c>
+      <c r="G387">
+        <v>19326887163692</v>
+      </c>
+      <c r="H387" s="2">
+        <v>51330.19</v>
+      </c>
+      <c r="I387">
+        <v>7851866680335</v>
+      </c>
+      <c r="J387" s="2">
+        <v>56152.76</v>
+      </c>
+      <c r="K387">
+        <v>5421214889088</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A388" s="1">
+        <v>45678</v>
+      </c>
+      <c r="B388" s="2">
+        <v>77471.33</v>
+      </c>
+      <c r="C388">
+        <v>9099184089449</v>
+      </c>
+      <c r="D388" s="2">
+        <v>66910.73</v>
+      </c>
+      <c r="E388">
+        <v>8599647408161</v>
+      </c>
+      <c r="F388" s="2">
+        <v>69471.47</v>
+      </c>
+      <c r="G388">
+        <v>19302055890532</v>
+      </c>
+      <c r="H388" s="2">
+        <v>51369.83</v>
+      </c>
+      <c r="I388">
+        <v>7856648736923</v>
+      </c>
+      <c r="J388" s="2">
+        <v>56221.52</v>
+      </c>
+      <c r="K388">
+        <v>5424290654780</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A389" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B389" s="2">
+        <v>77913.600000000006</v>
+      </c>
+      <c r="C389">
+        <v>9154508480339</v>
+      </c>
+      <c r="D389" s="2">
+        <v>67284.11</v>
+      </c>
+      <c r="E389">
+        <v>8647931174429</v>
+      </c>
+      <c r="F389" s="2">
+        <v>69900.34</v>
+      </c>
+      <c r="G389">
+        <v>19421033535538</v>
+      </c>
+      <c r="H389" s="2">
+        <v>51783.54</v>
+      </c>
+      <c r="I389">
+        <v>7918458993391</v>
+      </c>
+      <c r="J389" s="2">
+        <v>56762.65</v>
+      </c>
+      <c r="K389">
+        <v>5472618870858</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A390" s="1">
+        <v>45680</v>
+      </c>
+      <c r="B390" s="2">
+        <v>77668.490000000005</v>
+      </c>
+      <c r="C390">
+        <v>9127225263909</v>
+      </c>
+      <c r="D390" s="2">
+        <v>67181.8</v>
+      </c>
+      <c r="E390">
+        <v>8635566045787</v>
+      </c>
+      <c r="F390" s="2">
+        <v>69977.34</v>
+      </c>
+      <c r="G390">
+        <v>19440274897813</v>
+      </c>
+      <c r="H390" s="2">
+        <v>51959.88</v>
+      </c>
+      <c r="I390">
+        <v>7944186049023</v>
+      </c>
+      <c r="J390" s="2">
+        <v>57006.31</v>
+      </c>
+      <c r="K390">
+        <v>5490873257140</v>
+      </c>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A391" s="1">
+        <v>45681</v>
+      </c>
+      <c r="B391" s="2">
+        <v>77460.240000000005</v>
+      </c>
+      <c r="C391">
+        <v>9106771147147</v>
+      </c>
+      <c r="D391" s="2">
+        <v>67002.5</v>
+      </c>
+      <c r="E391">
+        <v>8613027654144</v>
+      </c>
+      <c r="F391" s="2">
+        <v>69779.37</v>
+      </c>
+      <c r="G391">
+        <v>19389278541227</v>
+      </c>
+      <c r="H391" s="2">
+        <v>51796.27</v>
+      </c>
+      <c r="I391">
+        <v>7917316678763</v>
+      </c>
+      <c r="J391" s="2">
+        <v>56822.83</v>
+      </c>
+      <c r="K391">
+        <v>5459878793021</v>
+      </c>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A392" s="1">
+        <v>45682</v>
+      </c>
+      <c r="B392" s="2">
+        <v>77460.240000000005</v>
+      </c>
+      <c r="C392">
+        <v>9106771147147</v>
+      </c>
+      <c r="D392" s="2">
+        <v>67002.5</v>
+      </c>
+      <c r="E392">
+        <v>8613027654144</v>
+      </c>
+      <c r="F392" s="2">
+        <v>69779.37</v>
+      </c>
+      <c r="G392">
+        <v>19389278541227</v>
+      </c>
+      <c r="H392" s="2">
+        <v>51796.27</v>
+      </c>
+      <c r="I392">
+        <v>7917316678763</v>
+      </c>
+      <c r="J392" s="2">
+        <v>56822.83</v>
+      </c>
+      <c r="K392">
+        <v>5459878793021</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A393" s="1">
+        <v>45683</v>
+      </c>
+      <c r="B393" s="2">
+        <v>77460.240000000005</v>
+      </c>
+      <c r="C393">
+        <v>9106771147147</v>
+      </c>
+      <c r="D393" s="2">
+        <v>67002.5</v>
+      </c>
+      <c r="E393">
+        <v>8613027654144</v>
+      </c>
+      <c r="F393" s="2">
+        <v>69779.37</v>
+      </c>
+      <c r="G393">
+        <v>19389278541227</v>
+      </c>
+      <c r="H393" s="2">
+        <v>51796.27</v>
+      </c>
+      <c r="I393">
+        <v>7917316678763</v>
+      </c>
+      <c r="J393" s="2">
+        <v>56822.83</v>
+      </c>
+      <c r="K393">
+        <v>5459878793021</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A394" s="1">
+        <v>45684</v>
+      </c>
+      <c r="B394" s="2">
+        <v>77303.28</v>
+      </c>
+      <c r="C394">
+        <v>9088436565402</v>
+      </c>
+      <c r="D394" s="2">
+        <v>66911.59</v>
+      </c>
+      <c r="E394">
+        <v>8601232809855</v>
+      </c>
+      <c r="F394" s="2">
+        <v>69805.45</v>
+      </c>
+      <c r="G394">
+        <v>19400830326349</v>
+      </c>
+      <c r="H394" s="2">
+        <v>51869.82</v>
+      </c>
+      <c r="I394">
+        <v>7925791323717</v>
+      </c>
+      <c r="J394" s="2">
+        <v>56911.33</v>
+      </c>
+      <c r="K394">
+        <v>5466324642694</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A395" s="1">
+        <v>45685</v>
+      </c>
+      <c r="B395" s="2">
+        <v>77013.84</v>
+      </c>
+      <c r="C395">
+        <v>9052305257733</v>
+      </c>
+      <c r="D395" s="2">
+        <v>66761.570000000007</v>
+      </c>
+      <c r="E395">
+        <v>8579296969652</v>
+      </c>
+      <c r="F395" s="2">
+        <v>69884.34</v>
+      </c>
+      <c r="G395">
+        <v>19423856155004</v>
+      </c>
+      <c r="H395" s="2">
+        <v>52117.15</v>
+      </c>
+      <c r="I395">
+        <v>7959964692825</v>
+      </c>
+      <c r="J395" s="2">
+        <v>57324.54</v>
+      </c>
+      <c r="K395">
+        <v>5508972112902</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A396" s="1">
+        <v>45686</v>
+      </c>
+      <c r="B396" s="2">
+        <v>77495.25</v>
+      </c>
+      <c r="C396">
+        <v>9109373940406</v>
+      </c>
+      <c r="D396" s="2">
+        <v>67097.66</v>
+      </c>
+      <c r="E396">
+        <v>8621577822363</v>
+      </c>
+      <c r="F396" s="2">
+        <v>70036.990000000005</v>
+      </c>
+      <c r="G396">
+        <v>19467328687230</v>
+      </c>
+      <c r="H396" s="2">
+        <v>52063.61</v>
+      </c>
+      <c r="I396">
+        <v>7951797431389</v>
+      </c>
+      <c r="J396" s="2">
+        <v>57183.66</v>
+      </c>
+      <c r="K396">
+        <v>5496106393624</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A397" s="1">
+        <v>45687</v>
+      </c>
+      <c r="B397" s="2">
+        <v>77543.460000000006</v>
+      </c>
+      <c r="C397">
+        <v>9112826546465</v>
+      </c>
+      <c r="D397" s="2">
+        <v>67100</v>
+      </c>
+      <c r="E397">
+        <v>8619821645166</v>
+      </c>
+      <c r="F397" s="2">
+        <v>70009.11</v>
+      </c>
+      <c r="G397">
+        <v>19457029233825</v>
+      </c>
+      <c r="H397" s="2">
+        <v>51948.05</v>
+      </c>
+      <c r="I397">
+        <v>7931144370298</v>
+      </c>
+      <c r="J397" s="2">
+        <v>56999.19</v>
+      </c>
+      <c r="K397">
+        <v>5477168861343</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A398" s="1">
+        <v>45688</v>
+      </c>
+      <c r="B398" s="2">
+        <v>77827.960000000006</v>
+      </c>
+      <c r="C398">
+        <v>9117351303854</v>
+      </c>
+      <c r="D398" s="2">
+        <v>67276.44</v>
+      </c>
+      <c r="E398">
+        <v>8643390579523</v>
+      </c>
+      <c r="F398" s="2">
+        <v>70131.990000000005</v>
+      </c>
+      <c r="G398">
+        <v>19460865987105</v>
+      </c>
+      <c r="H398" s="2">
+        <v>51992.93</v>
+      </c>
+      <c r="I398">
+        <v>7986479987861</v>
+      </c>
+      <c r="J398" s="2">
+        <v>56976.62</v>
+      </c>
+      <c r="K398">
+        <v>5474445006846</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A399" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B399" s="2">
+        <v>77827.960000000006</v>
+      </c>
+      <c r="C399">
+        <v>9117351303854</v>
+      </c>
+      <c r="D399" s="2">
+        <v>67276.44</v>
+      </c>
+      <c r="E399">
+        <v>8643390579523</v>
+      </c>
+      <c r="F399" s="2">
+        <v>70131.990000000005</v>
+      </c>
+      <c r="G399">
+        <v>19460865987105</v>
+      </c>
+      <c r="H399" s="2">
+        <v>51992.93</v>
+      </c>
+      <c r="I399">
+        <v>7986479987861</v>
+      </c>
+      <c r="J399" s="2">
+        <v>56976.62</v>
+      </c>
+      <c r="K399">
+        <v>5474445006846</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A400" s="1">
+        <v>45690</v>
+      </c>
+      <c r="B400" s="2">
+        <v>77827.960000000006</v>
+      </c>
+      <c r="C400">
+        <v>9117351303854</v>
+      </c>
+      <c r="D400" s="2">
+        <v>67276.44</v>
+      </c>
+      <c r="E400">
+        <v>8643390579523</v>
+      </c>
+      <c r="F400" s="2">
+        <v>70131.990000000005</v>
+      </c>
+      <c r="G400">
+        <v>19460865987105</v>
+      </c>
+      <c r="H400" s="2">
+        <v>51992.93</v>
+      </c>
+      <c r="I400">
+        <v>7986479987861</v>
+      </c>
+      <c r="J400" s="2">
+        <v>56976.62</v>
+      </c>
+      <c r="K400">
+        <v>5474445006846</v>
+      </c>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A401" s="1">
+        <v>45691</v>
+      </c>
+      <c r="B401" s="2">
+        <v>77618.73</v>
+      </c>
+      <c r="C401">
+        <v>9095791444493</v>
+      </c>
+      <c r="D401" s="2">
+        <v>67153.95</v>
+      </c>
+      <c r="E401">
+        <v>8627182471900</v>
+      </c>
+      <c r="F401" s="2">
+        <v>70060.28</v>
+      </c>
+      <c r="G401">
+        <v>19434750947708</v>
+      </c>
+      <c r="H401" s="2">
+        <v>51954.95</v>
+      </c>
+      <c r="I401">
+        <v>7977612649624</v>
+      </c>
+      <c r="J401" s="2">
+        <v>56924.01</v>
+      </c>
+      <c r="K401">
+        <v>5464234289269</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A402" s="1">
+        <v>45692</v>
+      </c>
+      <c r="B402" s="2">
+        <v>77224.88</v>
+      </c>
+      <c r="C402">
+        <v>9049354284509</v>
+      </c>
+      <c r="D402" s="2">
+        <v>66890.87</v>
+      </c>
+      <c r="E402">
+        <v>8591048357335</v>
+      </c>
+      <c r="F402" s="2">
+        <v>69781.17</v>
+      </c>
+      <c r="G402">
+        <v>19354183519845</v>
+      </c>
+      <c r="H402" s="2">
+        <v>51794.1</v>
+      </c>
+      <c r="I402">
+        <v>7950235954938</v>
+      </c>
+      <c r="J402" s="2">
+        <v>56782.41</v>
+      </c>
+      <c r="K402">
+        <v>5448796558219</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A403" s="1">
+        <v>45693</v>
+      </c>
+      <c r="B403" s="2">
+        <v>77243.320000000007</v>
+      </c>
+      <c r="C403">
+        <v>9051651841727</v>
+      </c>
+      <c r="D403" s="2">
+        <v>66948.100000000006</v>
+      </c>
+      <c r="E403">
+        <v>8595731326058</v>
+      </c>
+      <c r="F403" s="2">
+        <v>69879.92</v>
+      </c>
+      <c r="G403">
+        <v>19379571023044</v>
+      </c>
+      <c r="H403" s="2">
+        <v>51898.87</v>
+      </c>
+      <c r="I403">
+        <v>7964395507117</v>
+      </c>
+      <c r="J403" s="2">
+        <v>56844.92</v>
+      </c>
+      <c r="K403">
+        <v>5453649222976</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A404" s="1">
+        <v>45694</v>
+      </c>
+      <c r="B404" s="2">
+        <v>77123.509999999995</v>
+      </c>
+      <c r="C404">
+        <v>9035984121396</v>
+      </c>
+      <c r="D404" s="2">
+        <v>66950.39</v>
+      </c>
+      <c r="E404">
+        <v>8596166349969</v>
+      </c>
+      <c r="F404" s="2">
+        <v>70124.990000000005</v>
+      </c>
+      <c r="G404">
+        <v>19453612089878</v>
+      </c>
+      <c r="H404" s="2">
+        <v>52246.52</v>
+      </c>
+      <c r="I404">
+        <v>8019697137270</v>
+      </c>
+      <c r="J404" s="2">
+        <v>57272.77</v>
+      </c>
+      <c r="K404">
+        <v>5491875938103</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A405" s="1">
+        <v>45695</v>
+      </c>
+      <c r="B405" s="2">
+        <v>77169.14</v>
+      </c>
+      <c r="C405">
+        <v>9038707412809</v>
+      </c>
+      <c r="D405" s="2">
+        <v>66998.48</v>
+      </c>
+      <c r="E405">
+        <v>8602472023702</v>
+      </c>
+      <c r="F405" s="2">
+        <v>70164.100000000006</v>
+      </c>
+      <c r="G405">
+        <v>19462362751309</v>
+      </c>
+      <c r="H405" s="2">
+        <v>52258.239999999998</v>
+      </c>
+      <c r="I405">
+        <v>8018736317254</v>
+      </c>
+      <c r="J405" s="2">
+        <v>57275.01</v>
+      </c>
+      <c r="K405">
+        <v>5494081913996</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A406" s="1">
+        <v>45696</v>
+      </c>
+      <c r="B406" s="2">
+        <v>77169.14</v>
+      </c>
+      <c r="C406">
+        <v>9038707412809</v>
+      </c>
+      <c r="D406" s="2">
+        <v>66998.48</v>
+      </c>
+      <c r="E406">
+        <v>8602472023702</v>
+      </c>
+      <c r="F406" s="2">
+        <v>70164.100000000006</v>
+      </c>
+      <c r="G406">
+        <v>19462362751309</v>
+      </c>
+      <c r="H406" s="2">
+        <v>52258.239999999998</v>
+      </c>
+      <c r="I406">
+        <v>8018736317254</v>
+      </c>
+      <c r="J406" s="2">
+        <v>57275.01</v>
+      </c>
+      <c r="K406">
+        <v>5494081913996</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A407" s="1">
+        <v>45697</v>
+      </c>
+      <c r="B407" s="2">
+        <v>77169.14</v>
+      </c>
+      <c r="C407">
+        <v>9038707412809</v>
+      </c>
+      <c r="D407" s="2">
+        <v>66998.48</v>
+      </c>
+      <c r="E407">
+        <v>8602472023702</v>
+      </c>
+      <c r="F407" s="2">
+        <v>70164.100000000006</v>
+      </c>
+      <c r="G407">
+        <v>19462362751309</v>
+      </c>
+      <c r="H407" s="2">
+        <v>52258.239999999998</v>
+      </c>
+      <c r="I407">
+        <v>8018736317254</v>
+      </c>
+      <c r="J407" s="2">
+        <v>57275.01</v>
+      </c>
+      <c r="K407">
+        <v>5494081913996</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A408" s="1">
+        <v>45698</v>
+      </c>
+      <c r="B408" s="2">
+        <v>76395.89</v>
+      </c>
+      <c r="C408">
+        <v>8950012883762</v>
+      </c>
+      <c r="D408" s="2">
+        <v>66479.72</v>
+      </c>
+      <c r="E408">
+        <v>8532402249989</v>
+      </c>
+      <c r="F408" s="2">
+        <v>69813.56</v>
+      </c>
+      <c r="G408">
+        <v>19364108034598</v>
+      </c>
+      <c r="H408" s="2">
+        <v>52129.79</v>
+      </c>
+      <c r="I408">
+        <v>7994872712531</v>
+      </c>
+      <c r="J408" s="2">
+        <v>57252.58</v>
+      </c>
+      <c r="K408">
+        <v>5491463426263</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A409" s="1">
+        <v>45699</v>
+      </c>
+      <c r="B409" s="2">
+        <v>76588.05</v>
+      </c>
+      <c r="C409">
+        <v>8962940422526</v>
+      </c>
+      <c r="D409" s="2">
+        <v>66634.240000000005</v>
+      </c>
+      <c r="E409">
+        <v>8542871794129</v>
+      </c>
+      <c r="F409" s="2">
+        <v>69930.240000000005</v>
+      </c>
+      <c r="G409">
+        <v>19386395871473</v>
+      </c>
+      <c r="H409" s="2">
+        <v>52253.599999999999</v>
+      </c>
+      <c r="I409">
+        <v>8003827793475</v>
+      </c>
+      <c r="J409" s="2">
+        <v>57395.199999999997</v>
+      </c>
+      <c r="K409">
+        <v>5523365156806</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A410" s="1">
+        <v>45700</v>
+      </c>
+      <c r="B410" s="2">
+        <v>76519.89</v>
+      </c>
+      <c r="C410">
+        <v>8951657696122</v>
+      </c>
+      <c r="D410" s="2">
+        <v>66550.02</v>
+      </c>
+      <c r="E410">
+        <v>8528971550473</v>
+      </c>
+      <c r="F410" s="2">
+        <v>69769.84</v>
+      </c>
+      <c r="G410">
+        <v>19335907229298</v>
+      </c>
+      <c r="H410" s="2">
+        <v>52106.06</v>
+      </c>
+      <c r="I410">
+        <v>7972948298698</v>
+      </c>
+      <c r="J410" s="2">
+        <v>57228.1</v>
+      </c>
+      <c r="K410">
+        <v>5516842875721</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A411" s="1">
+        <v>45701</v>
+      </c>
+      <c r="B411" s="2">
+        <v>75803.92</v>
+      </c>
+      <c r="C411">
+        <v>8869481646556</v>
+      </c>
+      <c r="D411" s="2">
+        <v>65988.56</v>
+      </c>
+      <c r="E411">
+        <v>8459866851053</v>
+      </c>
+      <c r="F411" s="2">
+        <v>69077.37</v>
+      </c>
+      <c r="G411">
+        <v>19140006432615</v>
+      </c>
+      <c r="H411" s="2">
+        <v>51475.9</v>
+      </c>
+      <c r="I411">
+        <v>7869871874600</v>
+      </c>
+      <c r="J411" s="2">
+        <v>56513.39</v>
+      </c>
+      <c r="K411">
+        <v>5449756123745</v>
+      </c>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A412" s="1">
+        <v>45702</v>
+      </c>
+      <c r="B412" s="2">
+        <v>75983.289999999994</v>
+      </c>
+      <c r="C412">
+        <v>8895549030106</v>
+      </c>
+      <c r="D412" s="2">
+        <v>66147.34</v>
+      </c>
+      <c r="E412">
+        <v>8483204017556</v>
+      </c>
+      <c r="F412" s="2">
+        <v>69374.63</v>
+      </c>
+      <c r="G412">
+        <v>19231941458399</v>
+      </c>
+      <c r="H412" s="2">
+        <v>51768.41</v>
+      </c>
+      <c r="I412">
+        <v>7915739902476</v>
+      </c>
+      <c r="J412" s="2">
+        <v>56791.88</v>
+      </c>
+      <c r="K412">
+        <v>5484644165754</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A413" s="1">
+        <v>45703</v>
+      </c>
+      <c r="B413" s="2">
+        <v>75983.289999999994</v>
+      </c>
+      <c r="C413">
+        <v>8895549030106</v>
+      </c>
+      <c r="D413" s="2">
+        <v>66147.34</v>
+      </c>
+      <c r="E413">
+        <v>8483204017556</v>
+      </c>
+      <c r="F413" s="2">
+        <v>69374.63</v>
+      </c>
+      <c r="G413">
+        <v>19231941458399</v>
+      </c>
+      <c r="H413" s="2">
+        <v>51768.41</v>
+      </c>
+      <c r="I413">
+        <v>7915739902476</v>
+      </c>
+      <c r="J413" s="2">
+        <v>56791.88</v>
+      </c>
+      <c r="K413">
+        <v>5484644165754</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A414" s="1">
+        <v>45704</v>
+      </c>
+      <c r="B414" s="2">
+        <v>75983.289999999994</v>
+      </c>
+      <c r="C414">
+        <v>8895549030106</v>
+      </c>
+      <c r="D414" s="2">
+        <v>66147.34</v>
+      </c>
+      <c r="E414">
+        <v>8483204017556</v>
+      </c>
+      <c r="F414" s="2">
+        <v>69374.63</v>
+      </c>
+      <c r="G414">
+        <v>19231941458399</v>
+      </c>
+      <c r="H414" s="2">
+        <v>51768.41</v>
+      </c>
+      <c r="I414">
+        <v>7915739902476</v>
+      </c>
+      <c r="J414" s="2">
+        <v>56791.88</v>
+      </c>
+      <c r="K414">
+        <v>5484644165754</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A415" s="1">
+        <v>45705</v>
+      </c>
+      <c r="B415" s="2">
+        <v>75892.88</v>
+      </c>
+      <c r="C415">
+        <v>8899953132600</v>
+      </c>
+      <c r="D415" s="2">
+        <v>66156.94</v>
+      </c>
+      <c r="E415">
+        <v>8494899981917</v>
+      </c>
+      <c r="F415" s="2">
+        <v>69533.63</v>
+      </c>
+      <c r="G415">
+        <v>19275689538158</v>
+      </c>
+      <c r="H415" s="2">
+        <v>51993.07</v>
+      </c>
+      <c r="I415">
+        <v>7948890052038</v>
+      </c>
+      <c r="J415" s="2">
+        <v>57045.15</v>
+      </c>
+      <c r="K415">
+        <v>5497219896934</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A416" s="1">
+        <v>45706</v>
+      </c>
+      <c r="B416" s="2">
+        <v>76388.100000000006</v>
+      </c>
+      <c r="C416">
+        <v>8971103222910</v>
+      </c>
+      <c r="D416" s="2">
+        <v>66477.34</v>
+      </c>
+      <c r="E416">
+        <v>8545324300054</v>
+      </c>
+      <c r="F416" s="2">
+        <v>69712.710000000006</v>
+      </c>
+      <c r="G416">
+        <v>19335832947126</v>
+      </c>
+      <c r="H416" s="2">
+        <v>51962.16</v>
+      </c>
+      <c r="I416">
+        <v>7945562767358</v>
+      </c>
+      <c r="J416" s="2">
+        <v>56938.79</v>
+      </c>
+      <c r="K416">
+        <v>5480012898577</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A417" s="1">
+        <v>45707</v>
+      </c>
+      <c r="B417" s="2">
+        <v>76594.679999999993</v>
+      </c>
+      <c r="C417">
+        <v>9003135248413</v>
+      </c>
+      <c r="D417" s="2">
+        <v>66557.56</v>
+      </c>
+      <c r="E417">
+        <v>8559834164757</v>
+      </c>
+      <c r="F417" s="2">
+        <v>69600.84</v>
+      </c>
+      <c r="G417">
+        <v>19312661286488</v>
+      </c>
+      <c r="H417" s="2">
+        <v>51749.14</v>
+      </c>
+      <c r="I417">
+        <v>7913038560725</v>
+      </c>
+      <c r="J417" s="2">
+        <v>56624.75</v>
+      </c>
+      <c r="K417">
+        <v>5443516381727</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A418" s="1">
+        <v>45708</v>
+      </c>
+      <c r="B418" s="2">
+        <v>76648.240000000005</v>
+      </c>
+      <c r="C418">
+        <v>9008148684597</v>
+      </c>
+      <c r="D418" s="2">
+        <v>66556.38</v>
+      </c>
+      <c r="E418">
+        <v>8560032740097</v>
+      </c>
+      <c r="F418" s="2">
+        <v>69539.98</v>
+      </c>
+      <c r="G418">
+        <v>19291312273787</v>
+      </c>
+      <c r="H418" s="2">
+        <v>51703.77</v>
+      </c>
+      <c r="I418">
+        <v>7905942700264</v>
+      </c>
+      <c r="J418" s="2">
+        <v>56570.59</v>
+      </c>
+      <c r="K418">
+        <v>5435152428448</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A419" s="1">
+        <v>45709</v>
+      </c>
+      <c r="B419" s="2">
+        <v>76368.66</v>
+      </c>
+      <c r="C419">
+        <v>8977559258465</v>
+      </c>
+      <c r="D419" s="2">
+        <v>66403.850000000006</v>
+      </c>
+      <c r="E419">
+        <v>8540257168528</v>
+      </c>
+      <c r="F419" s="2">
+        <v>69569.259999999995</v>
+      </c>
+      <c r="G419">
+        <v>19298197203032</v>
+      </c>
+      <c r="H419" s="2">
+        <v>51844.81</v>
+      </c>
+      <c r="I419">
+        <v>7926359714209</v>
+      </c>
+      <c r="J419" s="2">
+        <v>56739.24</v>
+      </c>
+      <c r="K419">
+        <v>5447212273220</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A420" s="1">
+        <v>45710</v>
+      </c>
+      <c r="B420" s="2">
+        <v>76368.66</v>
+      </c>
+      <c r="C420">
+        <v>8977559258465</v>
+      </c>
+      <c r="D420" s="2">
+        <v>66403.850000000006</v>
+      </c>
+      <c r="E420">
+        <v>8540257168528</v>
+      </c>
+      <c r="F420" s="2">
+        <v>69569.259999999995</v>
+      </c>
+      <c r="G420">
+        <v>19298197203032</v>
+      </c>
+      <c r="H420" s="2">
+        <v>51844.81</v>
+      </c>
+      <c r="I420">
+        <v>7926359714209</v>
+      </c>
+      <c r="J420" s="2">
+        <v>56739.24</v>
+      </c>
+      <c r="K420">
+        <v>5447212273220</v>
+      </c>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A421" s="1">
+        <v>45711</v>
+      </c>
+      <c r="B421" s="2">
+        <v>76368.66</v>
+      </c>
+      <c r="C421">
+        <v>8977559258465</v>
+      </c>
+      <c r="D421" s="2">
+        <v>66403.850000000006</v>
+      </c>
+      <c r="E421">
+        <v>8540257168528</v>
+      </c>
+      <c r="F421" s="2">
+        <v>69569.259999999995</v>
+      </c>
+      <c r="G421">
+        <v>19298197203032</v>
+      </c>
+      <c r="H421" s="2">
+        <v>51844.81</v>
+      </c>
+      <c r="I421">
+        <v>7926359714209</v>
+      </c>
+      <c r="J421" s="2">
+        <v>56739.24</v>
+      </c>
+      <c r="K421">
+        <v>5447212273220</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A422" s="1">
+        <v>45712</v>
+      </c>
+      <c r="B422" s="2">
+        <v>75982.39</v>
+      </c>
+      <c r="C422">
+        <v>8934993120271</v>
+      </c>
+      <c r="D422" s="2">
+        <v>66206</v>
+      </c>
+      <c r="E422">
+        <v>8513967955164</v>
+      </c>
+      <c r="F422" s="2">
+        <v>69627.47</v>
+      </c>
+      <c r="G422">
+        <v>19314193993660</v>
+      </c>
+      <c r="H422" s="2">
+        <v>51994.68</v>
+      </c>
+      <c r="I422">
+        <v>7948246612264</v>
+      </c>
+      <c r="J422" s="2">
+        <v>57007.1</v>
+      </c>
+      <c r="K422">
+        <v>5467731842745</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A423" s="1">
+        <v>45713</v>
+      </c>
+      <c r="B423" s="2">
+        <v>76058.149999999994</v>
+      </c>
+      <c r="C423">
+        <v>8945117006973</v>
+      </c>
+      <c r="D423" s="2">
+        <v>66268.12</v>
+      </c>
+      <c r="E423">
+        <v>8519572075322</v>
+      </c>
+      <c r="F423" s="2">
+        <v>69796.17</v>
+      </c>
+      <c r="G423">
+        <v>19360024154934</v>
+      </c>
+      <c r="H423" s="2">
+        <v>52156.959999999999</v>
+      </c>
+      <c r="I423">
+        <v>7971975536602</v>
+      </c>
+      <c r="J423" s="2">
+        <v>57241.93</v>
+      </c>
+      <c r="K423">
+        <v>5488668586726</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A424" s="1">
+        <v>45714</v>
+      </c>
+      <c r="B424" s="2">
+        <v>75728.44</v>
+      </c>
+      <c r="C424">
+        <v>8907233759131</v>
+      </c>
+      <c r="D424" s="2">
+        <v>66137</v>
+      </c>
+      <c r="E424">
+        <v>8503759807119</v>
+      </c>
+      <c r="F424" s="2">
+        <v>69963.39</v>
+      </c>
+      <c r="G424">
+        <v>19406876758380</v>
+      </c>
+      <c r="H424" s="2">
+        <v>52525.57</v>
+      </c>
+      <c r="I424">
+        <v>8028045087852</v>
+      </c>
+      <c r="J424" s="2">
+        <v>57726.57</v>
+      </c>
+      <c r="K424">
+        <v>5532810140614</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A425" s="1">
+        <v>45715</v>
+      </c>
+      <c r="B425" s="2">
+        <v>76010.289999999994</v>
+      </c>
+      <c r="C425">
+        <v>8938255671238</v>
+      </c>
+      <c r="D425" s="2">
+        <v>66356</v>
+      </c>
+      <c r="E425">
+        <v>8530861040548</v>
+      </c>
+      <c r="F425" s="2">
+        <v>70093.16</v>
+      </c>
+      <c r="G425">
+        <v>19441075692114</v>
+      </c>
+      <c r="H425" s="2">
+        <v>52508.79</v>
+      </c>
+      <c r="I425">
+        <v>8025077244409</v>
+      </c>
+      <c r="J425" s="2">
+        <v>57638.83</v>
+      </c>
+      <c r="K425">
+        <v>5520951834961</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A426" s="1">
+        <v>45716</v>
+      </c>
+      <c r="B426" s="2">
+        <v>76042.23</v>
+      </c>
+      <c r="C426">
+        <v>8917927629158</v>
+      </c>
+      <c r="D426" s="2">
+        <v>66369.52</v>
+      </c>
+      <c r="E426">
+        <v>8534100680355</v>
+      </c>
+      <c r="F426" s="2">
+        <v>70040.47</v>
+      </c>
+      <c r="G426">
+        <v>19399133532432</v>
+      </c>
+      <c r="H426" s="2">
+        <v>52389.09</v>
+      </c>
+      <c r="I426">
+        <v>8056195933338</v>
+      </c>
+      <c r="J426" s="2">
+        <v>57525.2</v>
+      </c>
+      <c r="K426">
+        <v>5508842705680</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A427" s="1">
+        <v>45717</v>
+      </c>
+      <c r="B427" s="2">
+        <v>76042.23</v>
+      </c>
+      <c r="C427">
+        <v>8917927629158</v>
+      </c>
+      <c r="D427" s="2">
+        <v>66369.52</v>
+      </c>
+      <c r="E427">
+        <v>8534100680355</v>
+      </c>
+      <c r="F427" s="2">
+        <v>70040.47</v>
+      </c>
+      <c r="G427">
+        <v>19399133532432</v>
+      </c>
+      <c r="H427" s="2">
+        <v>52389.09</v>
+      </c>
+      <c r="I427">
+        <v>8056195933338</v>
+      </c>
+      <c r="J427" s="2">
+        <v>57525.2</v>
+      </c>
+      <c r="K427">
+        <v>5508842705680</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A428" s="1">
+        <v>45718</v>
+      </c>
+      <c r="B428" s="2">
+        <v>76042.23</v>
+      </c>
+      <c r="C428">
+        <v>8917927629158</v>
+      </c>
+      <c r="D428" s="2">
+        <v>66369.52</v>
+      </c>
+      <c r="E428">
+        <v>8534100680355</v>
+      </c>
+      <c r="F428" s="2">
+        <v>70040.47</v>
+      </c>
+      <c r="G428">
+        <v>19399133532432</v>
+      </c>
+      <c r="H428" s="2">
+        <v>52389.09</v>
+      </c>
+      <c r="I428">
+        <v>8056195933338</v>
+      </c>
+      <c r="J428" s="2">
+        <v>57525.2</v>
+      </c>
+      <c r="K428">
+        <v>5508842705680</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A429" s="1">
+        <v>45719</v>
+      </c>
+      <c r="B429" s="2">
+        <v>76294.509999999995</v>
+      </c>
+      <c r="C429">
+        <v>8947885346066</v>
+      </c>
+      <c r="D429" s="2">
+        <v>66573.600000000006</v>
+      </c>
+      <c r="E429">
+        <v>8558364834542</v>
+      </c>
+      <c r="F429" s="2">
+        <v>70309.070000000007</v>
+      </c>
+      <c r="G429">
+        <v>19465513911542</v>
+      </c>
+      <c r="H429" s="2">
+        <v>52679.42</v>
+      </c>
+      <c r="I429">
+        <v>8098015596133</v>
+      </c>
+      <c r="J429" s="2">
+        <v>57906.93</v>
+      </c>
+      <c r="K429">
+        <v>5540735804254</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A430" s="1">
+        <v>45720</v>
+      </c>
+      <c r="B430" s="2">
+        <v>76041.100000000006</v>
+      </c>
+      <c r="C430">
+        <v>8915665947442</v>
+      </c>
+      <c r="D430" s="2">
+        <v>66431.289999999994</v>
+      </c>
+      <c r="E430">
+        <v>8536764593302</v>
+      </c>
+      <c r="F430" s="2">
+        <v>70361</v>
+      </c>
+      <c r="G430">
+        <v>19478421735134</v>
+      </c>
+      <c r="H430" s="2">
+        <v>52728.08</v>
+      </c>
+      <c r="I430">
+        <v>8103630868849</v>
+      </c>
+      <c r="J430" s="2">
+        <v>57982.43</v>
+      </c>
+      <c r="K430">
+        <v>5548746309064</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A431" s="1">
+        <v>45721</v>
+      </c>
+      <c r="B431" s="2">
+        <v>75323.839999999997</v>
+      </c>
+      <c r="C431">
+        <v>8830855451690</v>
+      </c>
+      <c r="D431" s="2">
+        <v>66054.44</v>
+      </c>
+      <c r="E431">
+        <v>8486652598547</v>
+      </c>
+      <c r="F431" s="2">
+        <v>70302.11</v>
+      </c>
+      <c r="G431">
+        <v>19458087818711</v>
+      </c>
+      <c r="H431" s="2">
+        <v>52990.68</v>
+      </c>
+      <c r="I431">
+        <v>8141903189476</v>
+      </c>
+      <c r="J431" s="2">
+        <v>58435.26</v>
+      </c>
+      <c r="K431">
+        <v>5594404163383</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A432" s="1">
+        <v>45722</v>
+      </c>
+      <c r="B432" s="2">
+        <v>75093.14</v>
+      </c>
+      <c r="C432">
+        <v>8800823292413</v>
+      </c>
+      <c r="D432" s="2">
+        <v>65862.62</v>
+      </c>
+      <c r="E432">
+        <v>8458752914006</v>
+      </c>
+      <c r="F432" s="2">
+        <v>69993.2</v>
+      </c>
+      <c r="G432">
+        <v>19377781491474</v>
+      </c>
+      <c r="H432" s="2">
+        <v>52708.24</v>
+      </c>
+      <c r="I432">
+        <v>8099805509348</v>
+      </c>
+      <c r="J432" s="2">
+        <v>58039.93</v>
+      </c>
+      <c r="K432">
+        <v>5558719201583</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A433" s="1">
+        <v>45723</v>
+      </c>
+      <c r="B433" s="2">
+        <v>74329</v>
+      </c>
+      <c r="C433">
+        <v>8708345592830</v>
+      </c>
+      <c r="D433" s="2">
+        <v>65320.65</v>
+      </c>
+      <c r="E433">
+        <v>8388634726060</v>
+      </c>
+      <c r="F433" s="2">
+        <v>69636.399999999994</v>
+      </c>
+      <c r="G433">
+        <v>19273372982301</v>
+      </c>
+      <c r="H433" s="2">
+        <v>52556.24</v>
+      </c>
+      <c r="I433">
+        <v>8073444490776</v>
+      </c>
+      <c r="J433" s="2">
+        <v>57940.51</v>
+      </c>
+      <c r="K433">
+        <v>5549107445025</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A434" s="1">
+        <v>45724</v>
+      </c>
+      <c r="B434" s="2">
+        <v>74329</v>
+      </c>
+      <c r="C434">
+        <v>8708345592830</v>
+      </c>
+      <c r="D434" s="2">
+        <v>65320.65</v>
+      </c>
+      <c r="E434">
+        <v>8388634726060</v>
+      </c>
+      <c r="F434" s="2">
+        <v>69636.399999999994</v>
+      </c>
+      <c r="G434">
+        <v>19273372982301</v>
+      </c>
+      <c r="H434" s="2">
+        <v>52556.24</v>
+      </c>
+      <c r="I434">
+        <v>8073444490776</v>
+      </c>
+      <c r="J434" s="2">
+        <v>57940.51</v>
+      </c>
+      <c r="K434">
+        <v>5549107445025</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A435" s="1">
+        <v>45725</v>
+      </c>
+      <c r="B435" s="2">
+        <v>74329</v>
+      </c>
+      <c r="C435">
+        <v>8708345592830</v>
+      </c>
+      <c r="D435" s="2">
+        <v>65320.65</v>
+      </c>
+      <c r="E435">
+        <v>8388634726060</v>
+      </c>
+      <c r="F435" s="2">
+        <v>69636.399999999994</v>
+      </c>
+      <c r="G435">
+        <v>19273372982301</v>
+      </c>
+      <c r="H435" s="2">
+        <v>52556.24</v>
+      </c>
+      <c r="I435">
+        <v>8073444490776</v>
+      </c>
+      <c r="J435" s="2">
+        <v>57940.51</v>
+      </c>
+      <c r="K435">
+        <v>5549107445025</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A436" s="1">
+        <v>45726</v>
+      </c>
+      <c r="B436" s="2">
+        <v>74562.880000000005</v>
+      </c>
+      <c r="C436">
+        <v>8729863135124</v>
+      </c>
+      <c r="D436" s="2">
+        <v>65495.22</v>
+      </c>
+      <c r="E436">
+        <v>8404912413589</v>
+      </c>
+      <c r="F436" s="2">
+        <v>69798.81</v>
+      </c>
+      <c r="G436">
+        <v>19313442998206</v>
+      </c>
+      <c r="H436" s="2">
+        <v>52697.21</v>
+      </c>
+      <c r="I436">
+        <v>8093829854792</v>
+      </c>
+      <c r="J436" s="2">
+        <v>58088.31</v>
+      </c>
+      <c r="K436">
+        <v>5572653786462</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A437" s="1">
+        <v>45727</v>
+      </c>
+      <c r="B437" s="2">
+        <v>74081.06</v>
+      </c>
+      <c r="C437">
+        <v>8668847997399</v>
+      </c>
+      <c r="D437" s="2">
+        <v>65235.99</v>
+      </c>
+      <c r="E437">
+        <v>8368629676737</v>
+      </c>
+      <c r="F437" s="2">
+        <v>69881.45</v>
+      </c>
+      <c r="G437">
+        <v>19319426253176</v>
+      </c>
+      <c r="H437" s="2">
+        <v>52962.91</v>
+      </c>
+      <c r="I437">
+        <v>8126485461403</v>
+      </c>
+      <c r="J437" s="2">
+        <v>58518.83</v>
+      </c>
+      <c r="K437">
+        <v>5625039821942</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A438" s="1">
+        <v>45728</v>
+      </c>
+      <c r="B438" s="2">
+        <v>74131.820000000007</v>
+      </c>
+      <c r="C438">
+        <v>8668604314232</v>
+      </c>
+      <c r="D438" s="2">
+        <v>65296.78</v>
+      </c>
+      <c r="E438">
+        <v>8371820325524</v>
+      </c>
+      <c r="F438" s="2">
+        <v>69901.16</v>
+      </c>
+      <c r="G438">
+        <v>19316941932089</v>
+      </c>
+      <c r="H438" s="2">
+        <v>52967.23</v>
+      </c>
+      <c r="I438">
+        <v>8119037070134</v>
+      </c>
+      <c r="J438" s="2">
+        <v>58542.559999999998</v>
+      </c>
+      <c r="K438">
+        <v>5636774945525</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A439" s="1">
+        <v>45729</v>
+      </c>
+      <c r="B439" s="2">
+        <v>73865.960000000006</v>
+      </c>
+      <c r="C439">
+        <v>8630780228436</v>
+      </c>
+      <c r="D439" s="2">
+        <v>65094.44</v>
+      </c>
+      <c r="E439">
+        <v>8341380680524</v>
+      </c>
+      <c r="F439" s="2">
+        <v>69686.600000000006</v>
+      </c>
+      <c r="G439">
+        <v>19250589314762</v>
+      </c>
+      <c r="H439" s="2">
+        <v>52796.62</v>
+      </c>
+      <c r="I439">
+        <v>8088139807806</v>
+      </c>
+      <c r="J439" s="2">
+        <v>58328.59</v>
+      </c>
+      <c r="K439">
+        <v>5635112230674</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A440" s="1">
+        <v>45730</v>
+      </c>
+      <c r="B440" s="2">
+        <v>74136.009999999995</v>
+      </c>
+      <c r="C440">
+        <v>8656383078829</v>
+      </c>
+      <c r="D440" s="2">
+        <v>65295.519999999997</v>
+      </c>
+      <c r="E440">
+        <v>8365415480306</v>
+      </c>
+      <c r="F440" s="2">
+        <v>69927.66</v>
+      </c>
+      <c r="G440">
+        <v>19326752053597</v>
+      </c>
+      <c r="H440" s="2">
+        <v>52905.09</v>
+      </c>
+      <c r="I440">
+        <v>8106730150585</v>
+      </c>
+      <c r="J440" s="2">
+        <v>58424.11</v>
+      </c>
+      <c r="K440">
+        <v>5664641295028</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A441" s="1">
+        <v>45731</v>
+      </c>
+      <c r="B441" s="2">
+        <v>74136.009999999995</v>
+      </c>
+      <c r="C441">
+        <v>8656383078829</v>
+      </c>
+      <c r="D441" s="2">
+        <v>65295.519999999997</v>
+      </c>
+      <c r="E441">
+        <v>8365415480306</v>
+      </c>
+      <c r="F441" s="2">
+        <v>69927.66</v>
+      </c>
+      <c r="G441">
+        <v>19326752053597</v>
+      </c>
+      <c r="H441" s="2">
+        <v>52905.09</v>
+      </c>
+      <c r="I441">
+        <v>8106730150585</v>
+      </c>
+      <c r="J441" s="2">
+        <v>58424.11</v>
+      </c>
+      <c r="K441">
+        <v>5664641295028</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A442" s="1">
+        <v>45732</v>
+      </c>
+      <c r="B442" s="2">
+        <v>74136.009999999995</v>
+      </c>
+      <c r="C442">
+        <v>8656383078829</v>
+      </c>
+      <c r="D442" s="2">
+        <v>65295.519999999997</v>
+      </c>
+      <c r="E442">
+        <v>8365415480306</v>
+      </c>
+      <c r="F442" s="2">
+        <v>69927.66</v>
+      </c>
+      <c r="G442">
+        <v>19326752053597</v>
+      </c>
+      <c r="H442" s="2">
+        <v>52905.09</v>
+      </c>
+      <c r="I442">
+        <v>8106730150585</v>
+      </c>
+      <c r="J442" s="2">
+        <v>58424.11</v>
+      </c>
+      <c r="K442">
+        <v>5664641295028</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A443" s="1">
+        <v>45733</v>
+      </c>
+      <c r="B443" s="2">
+        <v>74536.88</v>
+      </c>
+      <c r="C443">
+        <v>8704403967049</v>
+      </c>
+      <c r="D443" s="2">
+        <v>65521.29</v>
+      </c>
+      <c r="E443">
+        <v>8395557806219</v>
+      </c>
+      <c r="F443" s="2">
+        <v>69979.539999999994</v>
+      </c>
+      <c r="G443">
+        <v>19336668401279</v>
+      </c>
+      <c r="H443" s="2">
+        <v>52891.839999999997</v>
+      </c>
+      <c r="I443">
+        <v>8108422339458</v>
+      </c>
+      <c r="J443" s="2">
+        <v>58324.13</v>
+      </c>
+      <c r="K443">
+        <v>5673551927521</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A444" s="1">
+        <v>45734</v>
+      </c>
+      <c r="B444" s="2">
+        <v>74537.08</v>
+      </c>
+      <c r="C444">
+        <v>8704583056339</v>
+      </c>
+      <c r="D444" s="2">
+        <v>65511.21</v>
+      </c>
+      <c r="E444">
+        <v>8395986355293</v>
+      </c>
+      <c r="F444" s="2">
+        <v>69990.05</v>
+      </c>
+      <c r="G444">
+        <v>19347742693564</v>
+      </c>
+      <c r="H444" s="2">
+        <v>52932.71</v>
+      </c>
+      <c r="I444">
+        <v>8119421092461</v>
+      </c>
+      <c r="J444" s="2">
+        <v>58328.14</v>
+      </c>
+      <c r="K444">
+        <v>5692261041755</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A445" s="1">
+        <v>45735</v>
+      </c>
+      <c r="B445" s="2">
+        <v>74243.5</v>
+      </c>
+      <c r="C445">
+        <v>8661733202739</v>
+      </c>
+      <c r="D445" s="2">
+        <v>65313.57</v>
+      </c>
+      <c r="E445">
+        <v>8362933565401</v>
+      </c>
+      <c r="F445" s="2">
+        <v>69913.61</v>
+      </c>
+      <c r="G445">
+        <v>19327748484353</v>
+      </c>
+      <c r="H445" s="2">
+        <v>52907.37</v>
+      </c>
+      <c r="I445">
+        <v>8121102900106</v>
+      </c>
+      <c r="J445" s="2">
+        <v>58300.03</v>
+      </c>
+      <c r="K445">
+        <v>5716818510386</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A446" s="1">
+        <v>45736</v>
+      </c>
+      <c r="B446" s="2">
+        <v>74575.64</v>
+      </c>
+      <c r="C446">
+        <v>8692647573715</v>
+      </c>
+      <c r="D446" s="2">
+        <v>65535.360000000001</v>
+      </c>
+      <c r="E446">
+        <v>8384526300499</v>
+      </c>
+      <c r="F446" s="2">
+        <v>70075.72</v>
+      </c>
+      <c r="G446">
+        <v>19370035236325</v>
+      </c>
+      <c r="H446" s="2">
+        <v>53004.33</v>
+      </c>
+      <c r="I446">
+        <v>8137373763767</v>
+      </c>
+      <c r="J446" s="2">
+        <v>58370.55</v>
+      </c>
+      <c r="K446">
+        <v>5732728523933</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A447" s="1">
+        <v>45737</v>
+      </c>
+      <c r="B447" s="2">
+        <v>74983.75</v>
+      </c>
+      <c r="C447">
+        <v>8732433682280</v>
+      </c>
+      <c r="D447" s="2">
+        <v>65857</v>
+      </c>
+      <c r="E447">
+        <v>8418052641904</v>
+      </c>
+      <c r="F447" s="2">
+        <v>70456.600000000006</v>
+      </c>
+      <c r="G447">
+        <v>19473648064259</v>
+      </c>
+      <c r="H447" s="2">
+        <v>53292.58</v>
+      </c>
+      <c r="I447">
+        <v>8183015769906</v>
+      </c>
+      <c r="J447" s="2">
+        <v>58696.42</v>
+      </c>
+      <c r="K447">
+        <v>5777995359968</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A448" s="1">
+        <v>45738</v>
+      </c>
+      <c r="B448" s="2">
+        <v>74983.75</v>
+      </c>
+      <c r="C448">
+        <v>8732433682280</v>
+      </c>
+      <c r="D448" s="2">
+        <v>65857</v>
+      </c>
+      <c r="E448">
+        <v>8418052641904</v>
+      </c>
+      <c r="F448" s="2">
+        <v>70456.600000000006</v>
+      </c>
+      <c r="G448">
+        <v>19473648064259</v>
+      </c>
+      <c r="H448" s="2">
+        <v>53292.58</v>
+      </c>
+      <c r="I448">
+        <v>8183015769906</v>
+      </c>
+      <c r="J448" s="2">
+        <v>58696.42</v>
+      </c>
+      <c r="K448">
+        <v>5777995359968</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A449" s="1">
+        <v>45739</v>
+      </c>
+      <c r="B449" s="2">
+        <v>74983.75</v>
+      </c>
+      <c r="C449">
+        <v>8732433682280</v>
+      </c>
+      <c r="D449" s="2">
+        <v>65857</v>
+      </c>
+      <c r="E449">
+        <v>8418052641904</v>
+      </c>
+      <c r="F449" s="2">
+        <v>70456.600000000006</v>
+      </c>
+      <c r="G449">
+        <v>19473648064259</v>
+      </c>
+      <c r="H449" s="2">
+        <v>53292.58</v>
+      </c>
+      <c r="I449">
+        <v>8183015769906</v>
+      </c>
+      <c r="J449" s="2">
+        <v>58696.42</v>
+      </c>
+      <c r="K449">
+        <v>5777995359968</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A450" s="1">
+        <v>45740</v>
+      </c>
+      <c r="B450" s="2">
+        <v>75240.800000000003</v>
+      </c>
+      <c r="C450">
+        <v>8760788419496</v>
+      </c>
+      <c r="D450" s="2">
+        <v>66064.94</v>
+      </c>
+      <c r="E450">
+        <v>8440271309623</v>
+      </c>
+      <c r="F450" s="2">
+        <v>70630.960000000006</v>
+      </c>
+      <c r="G450">
+        <v>19521782636190</v>
+      </c>
+      <c r="H450" s="2">
+        <v>53410.03</v>
+      </c>
+      <c r="I450">
+        <v>8200290503962</v>
+      </c>
+      <c r="J450" s="2">
+        <v>58821.33</v>
+      </c>
+      <c r="K450">
+        <v>5792001767262</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A451" s="1">
+        <v>45741</v>
+      </c>
+      <c r="B451" s="2">
+        <v>75195.570000000007</v>
+      </c>
+      <c r="C451">
+        <v>8754495890682</v>
+      </c>
+      <c r="D451" s="2">
+        <v>65947.98</v>
+      </c>
+      <c r="E451">
+        <v>8424394995575</v>
+      </c>
+      <c r="F451" s="2">
+        <v>70302.25</v>
+      </c>
+      <c r="G451">
+        <v>19430224889657</v>
+      </c>
+      <c r="H451" s="2">
+        <v>53136.33</v>
+      </c>
+      <c r="I451">
+        <v>8158071895835</v>
+      </c>
+      <c r="J451" s="2">
+        <v>58499.79</v>
+      </c>
+      <c r="K451">
+        <v>5758438914460</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A452" s="1">
+        <v>45742</v>
+      </c>
+      <c r="B452" s="2">
+        <v>74936.009999999995</v>
+      </c>
+      <c r="C452">
+        <v>8724826001258</v>
+      </c>
+      <c r="D452" s="2">
+        <v>65788.52</v>
+      </c>
+      <c r="E452">
+        <v>8402837863547</v>
+      </c>
+      <c r="F452" s="2">
+        <v>70259.06</v>
+      </c>
+      <c r="G452">
+        <v>19417830095215</v>
+      </c>
+      <c r="H452" s="2">
+        <v>53160.21</v>
+      </c>
+      <c r="I452">
+        <v>8160201228532</v>
+      </c>
+      <c r="J452" s="2">
+        <v>58516.88</v>
+      </c>
+      <c r="K452">
+        <v>5759189688493</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A453" s="1">
+        <v>45743</v>
+      </c>
+      <c r="B453" s="2">
+        <v>74609.11</v>
+      </c>
+      <c r="C453">
+        <v>8686105491542</v>
+      </c>
+      <c r="D453" s="2">
+        <v>65553.600000000006</v>
+      </c>
+      <c r="E453">
+        <v>8372324852644</v>
+      </c>
+      <c r="F453" s="2">
+        <v>70026.22</v>
+      </c>
+      <c r="G453">
+        <v>19350623553136</v>
+      </c>
+      <c r="H453" s="2">
+        <v>53002.01</v>
+      </c>
+      <c r="I453">
+        <v>8136779282182</v>
+      </c>
+      <c r="J453" s="2">
+        <v>58384.88</v>
+      </c>
+      <c r="K453">
+        <v>5745558588636</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A454" s="1">
+        <v>45744</v>
+      </c>
+      <c r="B454" s="2">
+        <v>75187.399999999994</v>
+      </c>
+      <c r="C454">
+        <v>8757078926547</v>
+      </c>
+      <c r="D454" s="2">
+        <v>65927.81</v>
+      </c>
+      <c r="E454">
+        <v>8421180826765</v>
+      </c>
+      <c r="F454" s="2">
+        <v>70198.75</v>
+      </c>
+      <c r="G454">
+        <v>19405684587422</v>
+      </c>
+      <c r="H454" s="2">
+        <v>52965.83</v>
+      </c>
+      <c r="I454">
+        <v>8129248616548</v>
+      </c>
+      <c r="J454" s="2">
+        <v>58291.14</v>
+      </c>
+      <c r="K454">
+        <v>5722440578387</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A455" s="1">
+        <v>45745</v>
+      </c>
+      <c r="B455" s="2">
+        <v>75187.399999999994</v>
+      </c>
+      <c r="C455">
+        <v>8757078926547</v>
+      </c>
+      <c r="D455" s="2">
+        <v>65927.81</v>
+      </c>
+      <c r="E455">
+        <v>8421180826765</v>
+      </c>
+      <c r="F455" s="2">
+        <v>70198.75</v>
+      </c>
+      <c r="G455">
+        <v>19405684587422</v>
+      </c>
+      <c r="H455" s="2">
+        <v>52965.83</v>
+      </c>
+      <c r="I455">
+        <v>8129248616548</v>
+      </c>
+      <c r="J455" s="2">
+        <v>58291.14</v>
+      </c>
+      <c r="K455">
+        <v>5722440578387</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A456" s="1">
+        <v>45746</v>
+      </c>
+      <c r="B456" s="2">
+        <v>75187.399999999994</v>
+      </c>
+      <c r="C456">
+        <v>8757078926547</v>
+      </c>
+      <c r="D456" s="2">
+        <v>65927.81</v>
+      </c>
+      <c r="E456">
+        <v>8421180826765</v>
+      </c>
+      <c r="F456" s="2">
+        <v>70198.75</v>
+      </c>
+      <c r="G456">
+        <v>19405684587422</v>
+      </c>
+      <c r="H456" s="2">
+        <v>52965.83</v>
+      </c>
+      <c r="I456">
+        <v>8129248616548</v>
+      </c>
+      <c r="J456" s="2">
+        <v>58291.14</v>
+      </c>
+      <c r="K456">
+        <v>5722440578387</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A457" s="1">
+        <v>45747</v>
+      </c>
+      <c r="B457" s="2">
+        <v>75598.460000000006</v>
+      </c>
+      <c r="C457">
+        <v>8780573284515</v>
+      </c>
+      <c r="D457" s="2">
+        <v>66318.05</v>
+      </c>
+      <c r="E457">
+        <v>8472776772139</v>
+      </c>
+      <c r="F457" s="2">
+        <v>70749.570000000007</v>
+      </c>
+      <c r="G457">
+        <v>19529759262925</v>
+      </c>
+      <c r="H457" s="2">
+        <v>53343.07</v>
+      </c>
+      <c r="I457">
+        <v>8237264814728</v>
+      </c>
+      <c r="J457" s="2">
+        <v>58744.03</v>
+      </c>
+      <c r="K457">
+        <v>5761647600140</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A458" s="1">
+        <v>45748</v>
+      </c>
+      <c r="B458" s="2">
+        <v>75916.460000000006</v>
+      </c>
+      <c r="C458">
+        <v>8821479739333</v>
+      </c>
+      <c r="D458" s="2">
+        <v>66527.67</v>
+      </c>
+      <c r="E458">
+        <v>8501918135591</v>
+      </c>
+      <c r="F458" s="2">
+        <v>70843.360000000001</v>
+      </c>
+      <c r="G458">
+        <v>19548435827183</v>
+      </c>
+      <c r="H458" s="2">
+        <v>53416</v>
+      </c>
+      <c r="I458">
+        <v>8246335317977</v>
+      </c>
+      <c r="J458" s="2">
+        <v>58846.32</v>
+      </c>
+      <c r="K458">
+        <v>5763399331405</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A459" s="1">
+        <v>45749</v>
+      </c>
+      <c r="B459" s="2">
+        <v>75984.14</v>
+      </c>
+      <c r="C459">
+        <v>8844421285487</v>
+      </c>
+      <c r="D459" s="2">
+        <v>66678.45</v>
+      </c>
+      <c r="E459">
+        <v>8527580017102</v>
+      </c>
+      <c r="F459" s="2">
+        <v>71208.899999999994</v>
+      </c>
+      <c r="G459">
+        <v>19648400847127</v>
+      </c>
+      <c r="H459" s="2">
+        <v>53816.62</v>
+      </c>
+      <c r="I459">
+        <v>8306626111059</v>
+      </c>
+      <c r="J459" s="2">
+        <v>59316.87</v>
+      </c>
+      <c r="K459">
+        <v>5778910588300</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A460" s="1">
+        <v>45750</v>
+      </c>
+      <c r="B460" s="2">
+        <v>76307.77</v>
+      </c>
+      <c r="C460">
+        <v>8883014987002</v>
+      </c>
+      <c r="D460" s="2">
+        <v>66898.41</v>
+      </c>
+      <c r="E460">
+        <v>8557771622792</v>
+      </c>
+      <c r="F460" s="2">
+        <v>71305.990000000005</v>
+      </c>
+      <c r="G460">
+        <v>19667094348056</v>
+      </c>
+      <c r="H460" s="2">
+        <v>53865.17</v>
+      </c>
+      <c r="I460">
+        <v>8311476494296</v>
+      </c>
+      <c r="J460" s="2">
+        <v>59367.31</v>
+      </c>
+      <c r="K460">
+        <v>5781319739333</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A461" s="1">
+        <v>45751</v>
+      </c>
+      <c r="B461" s="2">
+        <v>75145.63</v>
+      </c>
+      <c r="C461">
+        <v>8747434042270</v>
+      </c>
+      <c r="D461" s="2">
+        <v>66390.929999999993</v>
+      </c>
+      <c r="E461">
+        <v>8489489552128</v>
+      </c>
+      <c r="F461" s="2">
+        <v>71781</v>
+      </c>
+      <c r="G461">
+        <v>19797987012594</v>
+      </c>
+      <c r="H461" s="2">
+        <v>54743.91</v>
+      </c>
+      <c r="I461">
+        <v>8448836167002</v>
+      </c>
+      <c r="J461" s="2">
+        <v>60638.44</v>
+      </c>
+      <c r="K461">
+        <v>5907414289142</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A462" s="1">
+        <v>45752</v>
+      </c>
+      <c r="B462" s="2">
+        <v>75145.63</v>
+      </c>
+      <c r="C462">
+        <v>8747434042270</v>
+      </c>
+      <c r="D462" s="2">
+        <v>66390.929999999993</v>
+      </c>
+      <c r="E462">
+        <v>8489489552128</v>
+      </c>
+      <c r="F462" s="2">
+        <v>71781</v>
+      </c>
+      <c r="G462">
+        <v>19797987012594</v>
+      </c>
+      <c r="H462" s="2">
+        <v>54743.91</v>
+      </c>
+      <c r="I462">
+        <v>8448836167002</v>
+      </c>
+      <c r="J462" s="2">
+        <v>60638.44</v>
+      </c>
+      <c r="K462">
+        <v>5907414289142</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A463" s="1">
+        <v>45753</v>
+      </c>
+      <c r="B463" s="2">
+        <v>75145.63</v>
+      </c>
+      <c r="C463">
+        <v>8747434042270</v>
+      </c>
+      <c r="D463" s="2">
+        <v>66390.929999999993</v>
+      </c>
+      <c r="E463">
+        <v>8489489552128</v>
+      </c>
+      <c r="F463" s="2">
+        <v>71781</v>
+      </c>
+      <c r="G463">
+        <v>19797987012594</v>
+      </c>
+      <c r="H463" s="2">
+        <v>54743.91</v>
+      </c>
+      <c r="I463">
+        <v>8448836167002</v>
+      </c>
+      <c r="J463" s="2">
+        <v>60638.44</v>
+      </c>
+      <c r="K463">
+        <v>5907414289142</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A464" s="1">
+        <v>45754</v>
+      </c>
+      <c r="B464" s="2">
+        <v>74550.69</v>
+      </c>
+      <c r="C464">
+        <v>8678526034746</v>
+      </c>
+      <c r="D464" s="2">
+        <v>66267.460000000006</v>
+      </c>
+      <c r="E464">
+        <v>8472250822644</v>
+      </c>
+      <c r="F464" s="2">
+        <v>72079.16</v>
+      </c>
+      <c r="G464">
+        <v>19875968858500</v>
+      </c>
+      <c r="H464" s="2">
+        <v>55234.06</v>
+      </c>
+      <c r="I464">
+        <v>8522263414524</v>
+      </c>
+      <c r="J464" s="2">
+        <v>61567.9</v>
+      </c>
+      <c r="K464">
+        <v>5992679351742</v>
+      </c>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A465" s="1">
+        <v>45755</v>
+      </c>
+      <c r="B465" s="2">
+        <v>73422.73</v>
+      </c>
+      <c r="C465">
+        <v>8543081577301</v>
+      </c>
+      <c r="D465" s="2">
+        <v>65395.15</v>
+      </c>
+      <c r="E465">
+        <v>8357916684499</v>
+      </c>
+      <c r="F465" s="2">
+        <v>71135.72</v>
+      </c>
+      <c r="G465">
+        <v>19613181423716</v>
+      </c>
+      <c r="H465" s="2">
+        <v>54706.559999999998</v>
+      </c>
+      <c r="I465">
+        <v>8438649343353</v>
+      </c>
+      <c r="J465" s="2">
+        <v>61168.12</v>
+      </c>
+      <c r="K465">
+        <v>5959637854115</v>
+      </c>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A466" s="1">
+        <v>45756</v>
+      </c>
+      <c r="B466" s="2">
+        <v>73249.990000000005</v>
+      </c>
+      <c r="C466">
+        <v>8497946164068</v>
+      </c>
+      <c r="D466" s="2">
+        <v>65228.42</v>
+      </c>
+      <c r="E466">
+        <v>8316703870499</v>
+      </c>
+      <c r="F466" s="2">
+        <v>71073.42</v>
+      </c>
+      <c r="G466">
+        <v>19588087367095</v>
+      </c>
+      <c r="H466" s="2">
+        <v>54597.46</v>
+      </c>
+      <c r="I466">
+        <v>8422440562597</v>
+      </c>
+      <c r="J466" s="2">
+        <v>61043.35</v>
+      </c>
+      <c r="K466">
+        <v>5996329048075</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A467" s="1">
+        <v>45757</v>
+      </c>
+      <c r="B467" s="2">
+        <v>74940.149999999994</v>
+      </c>
+      <c r="C467">
+        <v>8668970381519</v>
+      </c>
+      <c r="D467" s="2">
+        <v>66124.490000000005</v>
+      </c>
+      <c r="E467">
+        <v>8409854624611</v>
+      </c>
+      <c r="F467" s="2">
+        <v>70747.360000000001</v>
+      </c>
+      <c r="G467">
+        <v>19487439133228</v>
+      </c>
+      <c r="H467" s="2">
+        <v>53916.13</v>
+      </c>
+      <c r="I467">
+        <v>8323166288820</v>
+      </c>
+      <c r="J467" s="2">
+        <v>59994.91</v>
+      </c>
+      <c r="K467">
+        <v>5940919867043</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A468" s="1">
+        <v>45758</v>
+      </c>
+      <c r="B468" s="2">
+        <v>74274.03</v>
+      </c>
+      <c r="C468">
+        <v>8546812385439</v>
+      </c>
+      <c r="D468" s="2">
+        <v>65727.58</v>
+      </c>
+      <c r="E468">
+        <v>8309630468297</v>
+      </c>
+      <c r="F468" s="2">
+        <v>70688.600000000006</v>
+      </c>
+      <c r="G468">
+        <v>19445377785610</v>
+      </c>
+      <c r="H468" s="2">
+        <v>53873.62</v>
+      </c>
+      <c r="I468">
+        <v>8331436863664</v>
+      </c>
+      <c r="J468" s="2">
+        <v>59962.42</v>
+      </c>
+      <c r="K468">
+        <v>6042592596752</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A469" s="1">
+        <v>45759</v>
+      </c>
+      <c r="B469" s="2">
+        <v>74274.03</v>
+      </c>
+      <c r="C469">
+        <v>8546812385439</v>
+      </c>
+      <c r="D469" s="2">
+        <v>65727.58</v>
+      </c>
+      <c r="E469">
+        <v>8309630468297</v>
+      </c>
+      <c r="F469" s="2">
+        <v>70688.600000000006</v>
+      </c>
+      <c r="G469">
+        <v>19445377785610</v>
+      </c>
+      <c r="H469" s="2">
+        <v>53873.62</v>
+      </c>
+      <c r="I469">
+        <v>8331436863664</v>
+      </c>
+      <c r="J469" s="2">
+        <v>59962.42</v>
+      </c>
+      <c r="K469">
+        <v>6042592596752</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A470" s="1">
+        <v>45760</v>
+      </c>
+      <c r="B470" s="2">
+        <v>74274.03</v>
+      </c>
+      <c r="C470">
+        <v>8546812385439</v>
+      </c>
+      <c r="D470" s="2">
+        <v>65727.58</v>
+      </c>
+      <c r="E470">
+        <v>8309630468297</v>
+      </c>
+      <c r="F470" s="2">
+        <v>70688.600000000006</v>
+      </c>
+      <c r="G470">
+        <v>19445377785610</v>
+      </c>
+      <c r="H470" s="2">
+        <v>53873.62</v>
+      </c>
+      <c r="I470">
+        <v>8331436863664</v>
+      </c>
+      <c r="J470" s="2">
+        <v>59962.42</v>
+      </c>
+      <c r="K470">
+        <v>6042592596752</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A471" s="1">
+        <v>45761</v>
+      </c>
+      <c r="B471" s="2">
+        <v>74099.259999999995</v>
+      </c>
+      <c r="C471">
+        <v>8497920251325</v>
+      </c>
+      <c r="D471" s="2">
+        <v>65471.47</v>
+      </c>
+      <c r="E471">
+        <v>8249560120848</v>
+      </c>
+      <c r="F471" s="2">
+        <v>70050.34</v>
+      </c>
+      <c r="G471">
+        <v>19251819062100</v>
+      </c>
+      <c r="H471" s="2">
+        <v>53243.66</v>
+      </c>
+      <c r="I471">
+        <v>8240967163372</v>
+      </c>
+      <c r="J471" s="2">
+        <v>59132.95</v>
+      </c>
+      <c r="K471">
+        <v>6009816228477</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A472" s="1">
+        <v>45762</v>
+      </c>
+      <c r="B472" s="2">
+        <v>74512.95</v>
+      </c>
+      <c r="C472">
+        <v>8533208712910</v>
+      </c>
+      <c r="D472" s="2">
+        <v>65831.94</v>
+      </c>
+      <c r="E472">
+        <v>8284439473189</v>
+      </c>
+      <c r="F472" s="2">
+        <v>70620.53</v>
+      </c>
+      <c r="G472">
+        <v>19399775709316</v>
+      </c>
+      <c r="H472" s="2">
+        <v>53727.45</v>
+      </c>
+      <c r="I472">
+        <v>8315379681382</v>
+      </c>
+      <c r="J472" s="2">
+        <v>59602.09</v>
+      </c>
+      <c r="K472">
+        <v>6087800142817</v>
+      </c>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A473" s="1">
+        <v>45763</v>
+      </c>
+      <c r="B473" s="2">
+        <v>74827.240000000005</v>
+      </c>
+      <c r="C473">
+        <v>8576521910527</v>
+      </c>
+      <c r="D473" s="2">
+        <v>66103.929999999993</v>
+      </c>
+      <c r="E473">
+        <v>8323325116122</v>
+      </c>
+      <c r="F473" s="2">
+        <v>70955.77</v>
+      </c>
+      <c r="G473">
+        <v>19492699144051</v>
+      </c>
+      <c r="H473" s="2">
+        <v>53952.55</v>
+      </c>
+      <c r="I473">
+        <v>8345857827612</v>
+      </c>
+      <c r="J473" s="2">
+        <v>59819.87</v>
+      </c>
+      <c r="K473">
+        <v>6119164711866</v>
+      </c>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A474" s="1">
+        <v>45764</v>
+      </c>
+      <c r="B474" s="2">
+        <v>74780.91</v>
+      </c>
+      <c r="C474">
+        <v>8574084999709</v>
+      </c>
+      <c r="D474" s="2">
+        <v>66138.91</v>
+      </c>
+      <c r="E474">
+        <v>8327140763690</v>
+      </c>
+      <c r="F474" s="2">
+        <v>71195.149999999994</v>
+      </c>
+      <c r="G474">
+        <v>19574698917565</v>
+      </c>
+      <c r="H474" s="2">
+        <v>54179.49</v>
+      </c>
+      <c r="I474">
+        <v>8388331020877</v>
+      </c>
+      <c r="J474" s="2">
+        <v>60100.07</v>
+      </c>
+      <c r="K474">
+        <v>6166386348952</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A475" s="1">
+        <v>45765</v>
+      </c>
+      <c r="B475" s="2">
+        <v>74780.91</v>
+      </c>
+      <c r="C475">
+        <v>8574084999709</v>
+      </c>
+      <c r="D475" s="2">
+        <v>66138.91</v>
+      </c>
+      <c r="E475">
+        <v>8327140763690</v>
+      </c>
+      <c r="F475" s="2">
+        <v>71195.149999999994</v>
+      </c>
+      <c r="G475">
+        <v>19574698917565</v>
+      </c>
+      <c r="H475" s="2">
+        <v>54179.49</v>
+      </c>
+      <c r="I475">
+        <v>8388331020877</v>
+      </c>
+      <c r="J475" s="2">
+        <v>60100.07</v>
+      </c>
+      <c r="K475">
+        <v>6166386348952</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A476" s="1">
+        <v>45766</v>
+      </c>
+      <c r="B476" s="2">
+        <v>74780.91</v>
+      </c>
+      <c r="C476">
+        <v>8574084999709</v>
+      </c>
+      <c r="D476" s="2">
+        <v>66138.91</v>
+      </c>
+      <c r="E476">
+        <v>8327140763690</v>
+      </c>
+      <c r="F476" s="2">
+        <v>71195.149999999994</v>
+      </c>
+      <c r="G476">
+        <v>19574698917565</v>
+      </c>
+      <c r="H476" s="2">
+        <v>54179.49</v>
+      </c>
+      <c r="I476">
+        <v>8388331020877</v>
+      </c>
+      <c r="J476" s="2">
+        <v>60100.07</v>
+      </c>
+      <c r="K476">
+        <v>6166386348952</v>
+      </c>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A477" s="1">
+        <v>45767</v>
+      </c>
+      <c r="B477" s="2">
+        <v>74780.91</v>
+      </c>
+      <c r="C477">
+        <v>8574084999709</v>
+      </c>
+      <c r="D477" s="2">
+        <v>66138.91</v>
+      </c>
+      <c r="E477">
+        <v>8327140763690</v>
+      </c>
+      <c r="F477" s="2">
+        <v>71195.149999999994</v>
+      </c>
+      <c r="G477">
+        <v>19574698917565</v>
+      </c>
+      <c r="H477" s="2">
+        <v>54179.49</v>
+      </c>
+      <c r="I477">
+        <v>8388331020877</v>
+      </c>
+      <c r="J477" s="2">
+        <v>60100.07</v>
+      </c>
+      <c r="K477">
+        <v>6166386348952</v>
+      </c>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A478" s="1">
+        <v>45768</v>
+      </c>
+      <c r="B478" s="2">
+        <v>74953.03</v>
+      </c>
+      <c r="C478">
+        <v>8593172100320</v>
+      </c>
+      <c r="D478" s="2">
+        <v>66214.8</v>
+      </c>
+      <c r="E478">
+        <v>8335047890788</v>
+      </c>
+      <c r="F478" s="2">
+        <v>71152.740000000005</v>
+      </c>
+      <c r="G478">
+        <v>19562156253284</v>
+      </c>
+      <c r="H478" s="2">
+        <v>54023.01</v>
+      </c>
+      <c r="I478">
+        <v>8366143378242</v>
+      </c>
+      <c r="J478" s="2">
+        <v>59852.75</v>
+      </c>
+      <c r="K478">
+        <v>6139668850829</v>
+      </c>
+    </row>
+    <row r="479" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A479" s="1">
+        <v>45769</v>
+      </c>
+      <c r="B479" s="2">
+        <v>74052.88</v>
+      </c>
+      <c r="C479">
+        <v>8491990257827</v>
+      </c>
+      <c r="D479" s="2">
+        <v>65596.92</v>
+      </c>
+      <c r="E479">
+        <v>8255407727092</v>
+      </c>
+      <c r="F479" s="2">
+        <v>70744.289999999994</v>
+      </c>
+      <c r="G479">
+        <v>19450929588317</v>
+      </c>
+      <c r="H479" s="2">
+        <v>53851.05</v>
+      </c>
+      <c r="I479">
+        <v>8340467566165</v>
+      </c>
+      <c r="J479" s="2">
+        <v>59714.38</v>
+      </c>
+      <c r="K479">
+        <v>6123011794573</v>
+      </c>
+    </row>
+    <row r="480" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A480" s="1">
+        <v>45770</v>
+      </c>
+      <c r="B480" s="2">
+        <v>74261.759999999995</v>
+      </c>
+      <c r="C480">
+        <v>8513604122429</v>
+      </c>
+      <c r="D480" s="2">
+        <v>65696.160000000003</v>
+      </c>
+      <c r="E480">
+        <v>8267040221737</v>
+      </c>
+      <c r="F480" s="2">
+        <v>70720.179999999993</v>
+      </c>
+      <c r="G480">
+        <v>19439437255380</v>
+      </c>
+      <c r="H480" s="2">
+        <v>53813.599999999999</v>
+      </c>
+      <c r="I480">
+        <v>8334125970019</v>
+      </c>
+      <c r="J480" s="2">
+        <v>59585.9</v>
+      </c>
+      <c r="K480">
+        <v>6114622558298</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A481" s="1">
+        <v>45771</v>
+      </c>
+      <c r="B481" s="2">
+        <v>74208.259999999995</v>
+      </c>
+      <c r="C481">
+        <v>8505510107306</v>
+      </c>
+      <c r="D481" s="2">
+        <v>65696.3</v>
+      </c>
+      <c r="E481">
+        <v>8264414744086</v>
+      </c>
+      <c r="F481" s="2">
+        <v>70755.600000000006</v>
+      </c>
+      <c r="G481">
+        <v>19447701647443</v>
+      </c>
+      <c r="H481" s="2">
+        <v>53905.17</v>
+      </c>
+      <c r="I481">
+        <v>8347209117274</v>
+      </c>
+      <c r="J481" s="2">
+        <v>59665.78</v>
+      </c>
+      <c r="K481">
+        <v>6122668131956</v>
+      </c>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A482" s="1">
+        <v>45772</v>
+      </c>
+      <c r="B482" s="2">
+        <v>74994.19</v>
+      </c>
+      <c r="C482">
+        <v>8592495607238</v>
+      </c>
+      <c r="D482" s="2">
+        <v>66278.259999999995</v>
+      </c>
+      <c r="E482">
+        <v>8334028638236</v>
+      </c>
+      <c r="F482" s="2">
+        <v>71248.55</v>
+      </c>
+      <c r="G482">
+        <v>19580906395532</v>
+      </c>
+      <c r="H482" s="2">
+        <v>54226.29</v>
+      </c>
+      <c r="I482">
+        <v>8397766234345</v>
+      </c>
+      <c r="J482" s="2">
+        <v>59923.74</v>
+      </c>
+      <c r="K482">
+        <v>6153347661130</v>
+      </c>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A483" s="1">
+        <v>45773</v>
+      </c>
+      <c r="B483" s="2">
+        <v>74994.19</v>
+      </c>
+      <c r="C483">
+        <v>8592495607238</v>
+      </c>
+      <c r="D483" s="2">
+        <v>66278.259999999995</v>
+      </c>
+      <c r="E483">
+        <v>8334028638236</v>
+      </c>
+      <c r="F483" s="2">
+        <v>71248.55</v>
+      </c>
+      <c r="G483">
+        <v>19580906395532</v>
+      </c>
+      <c r="H483" s="2">
+        <v>54226.29</v>
+      </c>
+      <c r="I483">
+        <v>8397766234345</v>
+      </c>
+      <c r="J483" s="2">
+        <v>59923.74</v>
+      </c>
+      <c r="K483">
+        <v>6153347661130</v>
+      </c>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A484" s="1">
+        <v>45774</v>
+      </c>
+      <c r="B484" s="2">
+        <v>74994.19</v>
+      </c>
+      <c r="C484">
+        <v>8592495607238</v>
+      </c>
+      <c r="D484" s="2">
+        <v>66278.259999999995</v>
+      </c>
+      <c r="E484">
+        <v>8334028638236</v>
+      </c>
+      <c r="F484" s="2">
+        <v>71248.55</v>
+      </c>
+      <c r="G484">
+        <v>19580906395532</v>
+      </c>
+      <c r="H484" s="2">
+        <v>54226.29</v>
+      </c>
+      <c r="I484">
+        <v>8397766234345</v>
+      </c>
+      <c r="J484" s="2">
+        <v>59923.74</v>
+      </c>
+      <c r="K484">
+        <v>6153347661130</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A485" s="1">
+        <v>45775</v>
+      </c>
+      <c r="B485" s="2">
+        <v>75169.84</v>
+      </c>
+      <c r="C485">
+        <v>8609994875856</v>
+      </c>
+      <c r="D485" s="2">
+        <v>66453.05</v>
+      </c>
+      <c r="E485">
+        <v>8353294823563</v>
+      </c>
+      <c r="F485" s="2">
+        <v>71471.199999999997</v>
+      </c>
+      <c r="G485">
+        <v>19643162624181</v>
+      </c>
+      <c r="H485" s="2">
+        <v>54386.23</v>
+      </c>
+      <c r="I485">
+        <v>8423564517961</v>
+      </c>
+      <c r="J485" s="2">
+        <v>60045.71</v>
+      </c>
+      <c r="K485">
+        <v>6166464356357</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A486" s="1">
+        <v>45776</v>
+      </c>
+      <c r="B486" s="2">
+        <v>75564.19</v>
+      </c>
+      <c r="C486">
+        <v>8658156426870</v>
+      </c>
+      <c r="D486" s="2">
+        <v>66738.44</v>
+      </c>
+      <c r="E486">
+        <v>8393453011060</v>
+      </c>
+      <c r="F486" s="2">
+        <v>71845.899999999994</v>
+      </c>
+      <c r="G486">
+        <v>19744507048693</v>
+      </c>
+      <c r="H486" s="2">
+        <v>54654.7</v>
+      </c>
+      <c r="I486">
+        <v>8462834673588</v>
+      </c>
+      <c r="J486" s="2">
+        <v>60319.66</v>
+      </c>
+      <c r="K486">
+        <v>6184107609802</v>
+      </c>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A487" s="1">
+        <v>45777</v>
+      </c>
+      <c r="B487" s="2">
+        <v>76485.77</v>
+      </c>
+      <c r="C487">
+        <v>8740322879582</v>
+      </c>
+      <c r="D487" s="2">
+        <v>67411.600000000006</v>
+      </c>
+      <c r="E487">
+        <v>8480194575625</v>
+      </c>
+      <c r="F487" s="2">
+        <v>72449.41</v>
+      </c>
+      <c r="G487">
+        <v>19882131755490</v>
+      </c>
+      <c r="H487" s="2">
+        <v>55018.34</v>
+      </c>
+      <c r="I487">
+        <v>8571188890646</v>
+      </c>
+      <c r="J487" s="2">
+        <v>60686.42</v>
+      </c>
+      <c r="K487">
+        <v>6213609937557</v>
+      </c>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A488" s="1">
+        <v>45778</v>
+      </c>
+      <c r="B488" s="2">
+        <v>76485.77</v>
+      </c>
+      <c r="C488">
+        <v>8740322879582</v>
+      </c>
+      <c r="D488" s="2">
+        <v>67411.600000000006</v>
+      </c>
+      <c r="E488">
+        <v>8480194575625</v>
+      </c>
+      <c r="F488" s="2">
+        <v>72449.41</v>
+      </c>
+      <c r="G488">
+        <v>19882131755490</v>
+      </c>
+      <c r="H488" s="2">
+        <v>55018.34</v>
+      </c>
+      <c r="I488">
+        <v>8571188890646</v>
+      </c>
+      <c r="J488" s="2">
+        <v>60686.42</v>
+      </c>
+      <c r="K488">
+        <v>6213609937557</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A489" s="1">
+        <v>45779</v>
+      </c>
+      <c r="B489" s="2">
+        <v>77248.91</v>
+      </c>
+      <c r="C489">
+        <v>8830487854829</v>
+      </c>
+      <c r="D489" s="2">
+        <v>67957.070000000007</v>
+      </c>
+      <c r="E489">
+        <v>8550466429744</v>
+      </c>
+      <c r="F489" s="2">
+        <v>72886.880000000005</v>
+      </c>
+      <c r="G489">
+        <v>19998605922916</v>
+      </c>
+      <c r="H489" s="2">
+        <v>55206.22</v>
+      </c>
+      <c r="I489">
+        <v>8597069950806</v>
+      </c>
+      <c r="J489" s="2">
+        <v>60874.87</v>
+      </c>
+      <c r="K489">
+        <v>6226302785186</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A490" s="1">
+        <v>45780</v>
+      </c>
+      <c r="B490" s="2">
+        <v>77248.91</v>
+      </c>
+      <c r="C490">
+        <v>8830487854829</v>
+      </c>
+      <c r="D490" s="2">
+        <v>67957.070000000007</v>
+      </c>
+      <c r="E490">
+        <v>8550466429744</v>
+      </c>
+      <c r="F490" s="2">
+        <v>72886.880000000005</v>
+      </c>
+      <c r="G490">
+        <v>19998605922916</v>
+      </c>
+      <c r="H490" s="2">
+        <v>55206.22</v>
+      </c>
+      <c r="I490">
+        <v>8597069950806</v>
+      </c>
+      <c r="J490" s="2">
+        <v>60874.87</v>
+      </c>
+      <c r="K490">
+        <v>6226302785186</v>
+      </c>
+    </row>
+    <row r="491" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A491" s="1">
+        <v>45781</v>
+      </c>
+      <c r="B491" s="2">
+        <v>77248.91</v>
+      </c>
+      <c r="C491">
+        <v>8830487854829</v>
+      </c>
+      <c r="D491" s="2">
+        <v>67957.070000000007</v>
+      </c>
+      <c r="E491">
+        <v>8550466429744</v>
+      </c>
+      <c r="F491" s="2">
+        <v>72886.880000000005</v>
+      </c>
+      <c r="G491">
+        <v>19998605922916</v>
+      </c>
+      <c r="H491" s="2">
+        <v>55206.22</v>
+      </c>
+      <c r="I491">
+        <v>8597069950806</v>
+      </c>
+      <c r="J491" s="2">
+        <v>60874.87</v>
+      </c>
+      <c r="K491">
+        <v>6226302785186</v>
+      </c>
+    </row>
+    <row r="492" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A492" s="1">
+        <v>45782</v>
+      </c>
+      <c r="B492" s="2">
+        <v>76583.73</v>
+      </c>
+      <c r="C492">
+        <v>8753795265062</v>
+      </c>
+      <c r="D492" s="2">
+        <v>67387.149999999994</v>
+      </c>
+      <c r="E492">
+        <v>8477279630526</v>
+      </c>
+      <c r="F492" s="2">
+        <v>72081.03</v>
+      </c>
+      <c r="G492">
+        <v>19777060780697</v>
+      </c>
+      <c r="H492" s="2">
+        <v>54583.33</v>
+      </c>
+      <c r="I492">
+        <v>8498975189702</v>
+      </c>
+      <c r="J492" s="2">
+        <v>60164.1</v>
+      </c>
+      <c r="K492">
+        <v>6148477955237</v>
+      </c>
+    </row>
+    <row r="493" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A493" s="1">
+        <v>45783</v>
+      </c>
+      <c r="B493" s="2">
+        <v>76382.38</v>
+      </c>
+      <c r="C493">
+        <v>8745027132726</v>
+      </c>
+      <c r="D493" s="2">
+        <v>67224.990000000005</v>
+      </c>
+      <c r="E493">
+        <v>8461894342713</v>
+      </c>
+      <c r="F493" s="2">
+        <v>71916.09</v>
+      </c>
+      <c r="G493">
+        <v>19733932290568</v>
+      </c>
+      <c r="H493" s="2">
+        <v>54426.81</v>
+      </c>
+      <c r="I493">
+        <v>8470414539534</v>
+      </c>
+      <c r="J493" s="2">
+        <v>59981.13</v>
+      </c>
+      <c r="K493">
+        <v>6100497742775</v>
+      </c>
+    </row>
+    <row r="494" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A494" s="1">
+        <v>45784</v>
+      </c>
+      <c r="B494" s="2">
+        <v>76386.5</v>
+      </c>
+      <c r="C494">
+        <v>8753204890433</v>
+      </c>
+      <c r="D494" s="2">
+        <v>67252.820000000007</v>
+      </c>
+      <c r="E494">
+        <v>8472203255293</v>
+      </c>
+      <c r="F494" s="2">
+        <v>72006.960000000006</v>
+      </c>
+      <c r="G494">
+        <v>19760784416767</v>
+      </c>
+      <c r="H494" s="2">
+        <v>54505</v>
+      </c>
+      <c r="I494">
+        <v>8482372144530</v>
+      </c>
+      <c r="J494" s="2">
+        <v>60054.99</v>
+      </c>
+      <c r="K494">
+        <v>6090888882965</v>
+      </c>
+    </row>
+    <row r="495" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A495" s="1">
+        <v>45785</v>
+      </c>
+      <c r="B495" s="2">
+        <v>76986.100000000006</v>
+      </c>
+      <c r="C495">
+        <v>8826363060912</v>
+      </c>
+      <c r="D495" s="2">
+        <v>67679.429999999993</v>
+      </c>
+      <c r="E495">
+        <v>8529317102462</v>
+      </c>
+      <c r="F495" s="2">
+        <v>72368.570000000007</v>
+      </c>
+      <c r="G495">
+        <v>19855805104340</v>
+      </c>
+      <c r="H495" s="2">
+        <v>54667.37</v>
+      </c>
+      <c r="I495">
+        <v>8503327684525</v>
+      </c>
+      <c r="J495" s="2">
+        <v>60186.17</v>
+      </c>
+      <c r="K495">
+        <v>6092600285413</v>
+      </c>
+    </row>
+    <row r="496" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A496" s="1">
+        <v>45786</v>
+      </c>
+      <c r="B496" s="2">
+        <v>76685.740000000005</v>
+      </c>
+      <c r="C496">
+        <v>8793756160663</v>
+      </c>
+      <c r="D496" s="2">
+        <v>67391.02</v>
+      </c>
+      <c r="E496">
+        <v>8492786838326</v>
+      </c>
+      <c r="F496" s="2">
+        <v>71849.06</v>
+      </c>
+      <c r="G496">
+        <v>19718967900277</v>
+      </c>
+      <c r="H496" s="2">
+        <v>54211.22</v>
+      </c>
+      <c r="I496">
+        <v>8431721325877</v>
+      </c>
+      <c r="J496" s="2">
+        <v>59651</v>
+      </c>
+      <c r="K496">
+        <v>6029931010863</v>
+      </c>
+    </row>
+    <row r="497" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A497" s="1">
+        <v>45787</v>
+      </c>
+      <c r="B497" s="2">
+        <v>76685.740000000005</v>
+      </c>
+      <c r="C497">
+        <v>8793756160663</v>
+      </c>
+      <c r="D497" s="2">
+        <v>67391.02</v>
+      </c>
+      <c r="E497">
+        <v>8492786838326</v>
+      </c>
+      <c r="F497" s="2">
+        <v>71849.06</v>
+      </c>
+      <c r="G497">
+        <v>19718967900277</v>
+      </c>
+      <c r="H497" s="2">
+        <v>54211.22</v>
+      </c>
+      <c r="I497">
+        <v>8431721325877</v>
+      </c>
+      <c r="J497" s="2">
+        <v>59651</v>
+      </c>
+      <c r="K497">
+        <v>6029931010863</v>
+      </c>
+    </row>
+    <row r="498" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A498" s="1">
+        <v>45788</v>
+      </c>
+      <c r="B498" s="2">
+        <v>76685.740000000005</v>
+      </c>
+      <c r="C498">
+        <v>8793756160663</v>
+      </c>
+      <c r="D498" s="2">
+        <v>67391.02</v>
+      </c>
+      <c r="E498">
+        <v>8492786838326</v>
+      </c>
+      <c r="F498" s="2">
+        <v>71849.06</v>
+      </c>
+      <c r="G498">
+        <v>19718967900277</v>
+      </c>
+      <c r="H498" s="2">
+        <v>54211.22</v>
+      </c>
+      <c r="I498">
+        <v>8431721325877</v>
+      </c>
+      <c r="J498" s="2">
+        <v>59651</v>
+      </c>
+      <c r="K498">
+        <v>6029931010863</v>
+      </c>
+    </row>
+    <row r="499" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A499" s="1">
+        <v>45789</v>
+      </c>
+      <c r="B499" s="2">
+        <v>76390.66</v>
+      </c>
+      <c r="C499">
+        <v>8763138358898</v>
+      </c>
+      <c r="D499" s="2">
+        <v>67196.399999999994</v>
+      </c>
+      <c r="E499">
+        <v>8467549607176</v>
+      </c>
+      <c r="F499" s="2">
+        <v>71760.460000000006</v>
+      </c>
+      <c r="G499">
+        <v>19694929914312</v>
+      </c>
+      <c r="H499" s="2">
+        <v>54209.7</v>
+      </c>
+      <c r="I499">
+        <v>8430143159510</v>
+      </c>
+      <c r="J499" s="2">
+        <v>59660.99</v>
+      </c>
+      <c r="K499">
+        <v>6024477597661</v>
+      </c>
+    </row>
+    <row r="500" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A500" s="1">
+        <v>45790</v>
+      </c>
+      <c r="B500" s="2">
+        <v>77634.19</v>
+      </c>
+      <c r="C500">
+        <v>8908213889334</v>
+      </c>
+      <c r="D500" s="2">
+        <v>67942.97</v>
+      </c>
+      <c r="E500">
+        <v>8562365706719</v>
+      </c>
+      <c r="F500" s="2">
+        <v>71907.45</v>
+      </c>
+      <c r="G500">
+        <v>19731045387558</v>
+      </c>
+      <c r="H500" s="2">
+        <v>53934.93</v>
+      </c>
+      <c r="I500">
+        <v>8380714016044</v>
+      </c>
+      <c r="J500" s="2">
+        <v>59155.64</v>
+      </c>
+      <c r="K500">
+        <v>5967276624768</v>
+      </c>
+    </row>
+    <row r="501" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A501" s="1">
+        <v>45791</v>
+      </c>
+      <c r="B501" s="2">
+        <v>77924.55</v>
+      </c>
+      <c r="C501">
+        <v>8946754742720</v>
+      </c>
+      <c r="D501" s="2">
+        <v>68135.039999999994</v>
+      </c>
+      <c r="E501">
+        <v>8590026435634</v>
+      </c>
+      <c r="F501" s="2">
+        <v>71997.45</v>
+      </c>
+      <c r="G501">
+        <v>19751483163233</v>
+      </c>
+      <c r="H501" s="2">
+        <v>53912.639999999999</v>
+      </c>
+      <c r="I501">
+        <v>8371390298682</v>
+      </c>
+      <c r="J501" s="2">
+        <v>59044.53</v>
+      </c>
+      <c r="K501">
+        <v>5947852290044</v>
+      </c>
+    </row>
+    <row r="502" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A502" s="1">
+        <v>45792</v>
+      </c>
+      <c r="B502" s="2">
+        <v>77920.17</v>
+      </c>
+      <c r="C502">
+        <v>8954918446721</v>
+      </c>
+      <c r="D502" s="2">
+        <v>68110.789999999994</v>
+      </c>
+      <c r="E502">
+        <v>8593118959788</v>
+      </c>
+      <c r="F502" s="2">
+        <v>71840.42</v>
+      </c>
+      <c r="G502">
+        <v>19702536097334</v>
+      </c>
+      <c r="H502" s="2">
+        <v>53682.59</v>
+      </c>
+      <c r="I502">
+        <v>8329323387444</v>
+      </c>
+      <c r="J502" s="2">
+        <v>58736.41</v>
+      </c>
+      <c r="K502">
+        <v>5913485929009</v>
+      </c>
+    </row>
+    <row r="503" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A503" s="1">
+        <v>45793</v>
+      </c>
+      <c r="B503" s="2">
+        <v>78284.259999999995</v>
+      </c>
+      <c r="C503">
+        <v>9026292214939</v>
+      </c>
+      <c r="D503" s="2">
+        <v>68405.850000000006</v>
+      </c>
+      <c r="E503">
+        <v>8653237996771</v>
+      </c>
+      <c r="F503" s="2">
+        <v>72306.19</v>
+      </c>
+      <c r="G503">
+        <v>19852388730364</v>
+      </c>
+      <c r="H503" s="2">
+        <v>54124</v>
+      </c>
+      <c r="I503">
+        <v>8399951756897</v>
+      </c>
+      <c r="J503" s="2">
+        <v>59239.75</v>
+      </c>
+      <c r="K503">
+        <v>5942029437842</v>
+      </c>
+    </row>
+    <row r="504" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A504" s="1">
+        <v>45794</v>
+      </c>
+      <c r="B504" s="2">
+        <v>78284.259999999995</v>
+      </c>
+      <c r="C504">
+        <v>9026292214939</v>
+      </c>
+      <c r="D504" s="2">
+        <v>68405.850000000006</v>
+      </c>
+      <c r="E504">
+        <v>8653237996771</v>
+      </c>
+      <c r="F504" s="2">
+        <v>72306.19</v>
+      </c>
+      <c r="G504">
+        <v>19852388730364</v>
+      </c>
+      <c r="H504" s="2">
+        <v>54124</v>
+      </c>
+      <c r="I504">
+        <v>8399951756897</v>
+      </c>
+      <c r="J504" s="2">
+        <v>59239.75</v>
+      </c>
+      <c r="K504">
+        <v>5942029437842</v>
+      </c>
+    </row>
+    <row r="505" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A505" s="1">
+        <v>45795</v>
+      </c>
+      <c r="B505" s="2">
+        <v>78284.259999999995</v>
+      </c>
+      <c r="C505">
+        <v>9026292214939</v>
+      </c>
+      <c r="D505" s="2">
+        <v>68405.850000000006</v>
+      </c>
+      <c r="E505">
+        <v>8653237996771</v>
+      </c>
+      <c r="F505" s="2">
+        <v>72306.19</v>
+      </c>
+      <c r="G505">
+        <v>19852388730364</v>
+      </c>
+      <c r="H505" s="2">
+        <v>54124</v>
+      </c>
+      <c r="I505">
+        <v>8399951756897</v>
+      </c>
+      <c r="J505" s="2">
+        <v>59239.75</v>
+      </c>
+      <c r="K505">
+        <v>5942029437842</v>
+      </c>
+    </row>
+    <row r="506" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A506" s="1">
+        <v>45796</v>
+      </c>
+      <c r="B506" s="2">
+        <v>78594.11</v>
+      </c>
+      <c r="C506">
+        <v>9069890097957</v>
+      </c>
+      <c r="D506" s="2">
+        <v>68607.23</v>
+      </c>
+      <c r="E506">
+        <v>8687631454050</v>
+      </c>
+      <c r="F506" s="2">
+        <v>72456.710000000006</v>
+      </c>
+      <c r="G506">
+        <v>19903435646644</v>
+      </c>
+      <c r="H506" s="2">
+        <v>54201.53</v>
+      </c>
+      <c r="I506">
+        <v>8411810184828</v>
+      </c>
+      <c r="J506" s="2">
+        <v>59327.93</v>
+      </c>
+      <c r="K506">
+        <v>5942672706353</v>
+      </c>
+    </row>
+    <row r="507" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A507" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B507" s="2">
+        <v>78225.850000000006</v>
+      </c>
+      <c r="C507">
+        <v>9035024746816</v>
+      </c>
+      <c r="D507" s="2">
+        <v>68354.320000000007</v>
+      </c>
+      <c r="E507">
+        <v>8662127554044</v>
+      </c>
+      <c r="F507" s="2">
+        <v>72325.429999999993</v>
+      </c>
+      <c r="G507">
+        <v>19874480238328</v>
+      </c>
+      <c r="H507" s="2">
+        <v>54193.08</v>
+      </c>
+      <c r="I507">
+        <v>8410571859402</v>
+      </c>
+      <c r="J507" s="2">
+        <v>59324.92</v>
+      </c>
+      <c r="K507">
+        <v>5938191571661</v>
+      </c>
+    </row>
+    <row r="508" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A508" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B508" s="2">
+        <v>78225.850000000006</v>
+      </c>
+      <c r="C508">
+        <v>9035024746816</v>
+      </c>
+      <c r="D508" s="2">
+        <v>68354.320000000007</v>
+      </c>
+      <c r="E508">
+        <v>8662127554044</v>
+      </c>
+      <c r="F508" s="2">
+        <v>72325.429999999993</v>
+      </c>
+      <c r="G508">
+        <v>19874480238328</v>
+      </c>
+      <c r="H508" s="2">
+        <v>54193.08</v>
+      </c>
+      <c r="I508">
+        <v>8410571859402</v>
+      </c>
+      <c r="J508" s="2">
+        <v>59324.92</v>
+      </c>
+      <c r="K508">
+        <v>5938191571661</v>
+      </c>
+    </row>
+    <row r="509" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A509" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B509" s="2">
+        <v>78183.61</v>
+      </c>
+      <c r="C509">
+        <v>9032199439326</v>
+      </c>
+      <c r="D509" s="2">
+        <v>68349.77</v>
+      </c>
+      <c r="E509">
+        <v>8663182654938</v>
+      </c>
+      <c r="F509" s="2">
+        <v>72345.58</v>
+      </c>
+      <c r="G509">
+        <v>19893015616836</v>
+      </c>
+      <c r="H509" s="2">
+        <v>54138.12</v>
+      </c>
+      <c r="I509">
+        <v>8393299712120</v>
+      </c>
+      <c r="J509" s="2">
+        <v>59279.67</v>
+      </c>
+      <c r="K509">
+        <v>5922171088991</v>
+      </c>
+    </row>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A510" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B510" s="2">
+        <v>78075.09</v>
+      </c>
+      <c r="C510">
+        <v>9018486924095</v>
+      </c>
+      <c r="D510" s="2">
+        <v>68246.37</v>
+      </c>
+      <c r="E510">
+        <v>8651713554038</v>
+      </c>
+      <c r="F510" s="2">
+        <v>72158.33</v>
+      </c>
+      <c r="G510">
+        <v>19844447244194</v>
+      </c>
+      <c r="H510" s="2">
+        <v>53939.19</v>
+      </c>
+      <c r="I510">
+        <v>8362085328216</v>
+      </c>
+      <c r="J510" s="2">
+        <v>59045.46</v>
+      </c>
+      <c r="K510">
+        <v>5894069100259</v>
+      </c>
+    </row>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A511" s="1">
+        <v>45801</v>
+      </c>
+      <c r="B511" s="2">
+        <v>78075.09</v>
+      </c>
+      <c r="C511">
+        <v>9018486924095</v>
+      </c>
+      <c r="D511" s="2">
+        <v>68246.37</v>
+      </c>
+      <c r="E511">
+        <v>8651713554038</v>
+      </c>
+      <c r="F511" s="2">
+        <v>72158.33</v>
+      </c>
+      <c r="G511">
+        <v>19844447244194</v>
+      </c>
+      <c r="H511" s="2">
+        <v>53939.19</v>
+      </c>
+      <c r="I511">
+        <v>8362085328216</v>
+      </c>
+      <c r="J511" s="2">
+        <v>59045.46</v>
+      </c>
+      <c r="K511">
+        <v>5894069100259</v>
+      </c>
+    </row>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A512" s="1">
+        <v>45802</v>
+      </c>
+      <c r="B512" s="2">
+        <v>78075.09</v>
+      </c>
+      <c r="C512">
+        <v>9018486924095</v>
+      </c>
+      <c r="D512" s="2">
+        <v>68246.37</v>
+      </c>
+      <c r="E512">
+        <v>8651713554038</v>
+      </c>
+      <c r="F512" s="2">
+        <v>72158.33</v>
+      </c>
+      <c r="G512">
+        <v>19844447244194</v>
+      </c>
+      <c r="H512" s="2">
+        <v>53939.19</v>
+      </c>
+      <c r="I512">
+        <v>8362085328216</v>
+      </c>
+      <c r="J512" s="2">
+        <v>59045.46</v>
+      </c>
+      <c r="K512">
+        <v>5894069100259</v>
+      </c>
+    </row>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A513" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B513" s="2">
+        <v>77820.509999999995</v>
+      </c>
+      <c r="C513">
+        <v>8990061746662</v>
+      </c>
+      <c r="D513" s="2">
+        <v>68097.320000000007</v>
+      </c>
+      <c r="E513">
+        <v>8631119157177</v>
+      </c>
+      <c r="F513" s="2">
+        <v>72164.399999999994</v>
+      </c>
+      <c r="G513">
+        <v>19851050582562</v>
+      </c>
+      <c r="H513" s="2">
+        <v>54040.2</v>
+      </c>
+      <c r="I513">
+        <v>8377015232044</v>
+      </c>
+      <c r="J513" s="2">
+        <v>59183.92</v>
+      </c>
+      <c r="K513">
+        <v>5900140421987</v>
+      </c>
+    </row>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A514" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B514" s="2">
+        <v>77800.63</v>
+      </c>
+      <c r="C514">
+        <v>8989068621723</v>
+      </c>
+      <c r="D514" s="2">
+        <v>68077.210000000006</v>
+      </c>
+      <c r="E514">
+        <v>8626552026609</v>
+      </c>
+      <c r="F514" s="2">
+        <v>72147.14</v>
+      </c>
+      <c r="G514">
+        <v>19848165002388</v>
+      </c>
+      <c r="H514" s="2">
+        <v>54017.14</v>
+      </c>
+      <c r="I514">
+        <v>8372682040595</v>
+      </c>
+      <c r="J514" s="2">
+        <v>59132.19</v>
+      </c>
+      <c r="K514">
+        <v>5891124237684</v>
+      </c>
+    </row>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A515" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B515" s="2">
+        <v>78476.36</v>
+      </c>
+      <c r="C515">
+        <v>9069584658679</v>
+      </c>
+      <c r="D515" s="2">
+        <v>68568.56</v>
+      </c>
+      <c r="E515">
+        <v>8689727081642</v>
+      </c>
+      <c r="F515" s="2">
+        <v>72618.679999999993</v>
+      </c>
+      <c r="G515">
+        <v>19977470247233</v>
+      </c>
+      <c r="H515" s="2">
+        <v>54360.69</v>
+      </c>
+      <c r="I515">
+        <v>8424822949434</v>
+      </c>
+      <c r="J515" s="2">
+        <v>59447.01</v>
+      </c>
+      <c r="K515">
+        <v>5917854762833</v>
+      </c>
+    </row>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A516" s="1">
+        <v>45806</v>
+      </c>
+      <c r="B516" s="2">
+        <v>78184.63</v>
+      </c>
+      <c r="C516">
+        <v>9033284314009</v>
+      </c>
+      <c r="D516" s="2">
+        <v>68342.679999999993</v>
+      </c>
+      <c r="E516">
+        <v>8659388214004</v>
+      </c>
+      <c r="F516" s="2">
+        <v>72306.429999999993</v>
+      </c>
+      <c r="G516">
+        <v>19885691480750</v>
+      </c>
+      <c r="H516" s="2">
+        <v>54093.89</v>
+      </c>
+      <c r="I516">
+        <v>8382319163418</v>
+      </c>
+      <c r="J516" s="2">
+        <v>59166.9</v>
+      </c>
+      <c r="K516">
+        <v>5898140221128</v>
+      </c>
+    </row>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A517" s="1">
+        <v>45807</v>
+      </c>
+      <c r="B517" s="2">
+        <v>78235.95</v>
+      </c>
+      <c r="C517">
+        <v>9013740679765</v>
+      </c>
+      <c r="D517" s="2">
+        <v>68401.89</v>
+      </c>
+      <c r="E517">
+        <v>8668521149507</v>
+      </c>
+      <c r="F517" s="2">
+        <v>72462.12</v>
+      </c>
+      <c r="G517">
+        <v>19900944371737</v>
+      </c>
+      <c r="H517" s="2">
+        <v>54289.34</v>
+      </c>
+      <c r="I517">
+        <v>8460792215617</v>
+      </c>
+      <c r="J517" s="2">
+        <v>59381.03</v>
+      </c>
+      <c r="K517">
+        <v>5915570266660</v>
+      </c>
+    </row>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A518" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B518" s="2">
+        <v>78235.95</v>
+      </c>
+      <c r="C518">
+        <v>9013740679765</v>
+      </c>
+      <c r="D518" s="2">
+        <v>68401.89</v>
+      </c>
+      <c r="E518">
+        <v>8668521149507</v>
+      </c>
+      <c r="F518" s="2">
+        <v>72462.12</v>
+      </c>
+      <c r="G518">
+        <v>19900944371737</v>
+      </c>
+      <c r="H518" s="2">
+        <v>54289.34</v>
+      </c>
+      <c r="I518">
+        <v>8460792215617</v>
+      </c>
+      <c r="J518" s="2">
+        <v>59381.03</v>
+      </c>
+      <c r="K518">
+        <v>5915570266660</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
